--- a/DataDictionary05092023.xlsx
+++ b/DataDictionary05092023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/Developer/lib_python/tapestratification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92132A40-FE83-024A-ACFE-2F08887A6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8E7B7-0E72-5A4B-B90F-FEDC54240AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="475">
   <si>
     <t>loanid</t>
   </si>
@@ -1050,15 +1050,9 @@
     <t>ConsumerCard</t>
   </si>
   <si>
-    <t>consumer_mortgage, consumer_auto, consumer_student, cosnumer_card, consumer_unsecured, commercial_mortgage, commercial_amortizing, commercial_bullet, commercial_revolver, commercial_abl_revolver, commercial_abl_fixed</t>
-  </si>
-  <si>
     <t>Unique identifier for each loan or lease asset</t>
   </si>
   <si>
-    <t xml:space="preserve">CFE specific variable which triggers object type.  </t>
-  </si>
-  <si>
     <t>prop_value</t>
   </si>
   <si>
@@ -1131,9 +1125,6 @@
     <t>Type of documentation used at underwriting.  Referrs to income and employment verification if non-mortgage</t>
   </si>
   <si>
-    <t>MTG: full, low, none; CONS: : full, inc, emp, none</t>
-  </si>
-  <si>
     <t>prop_year</t>
   </si>
   <si>
@@ -1432,6 +1423,48 @@
   </si>
   <si>
     <t>CommercialABL</t>
+  </si>
+  <si>
+    <t>MTG: full; low; none | CONS: full; inc; emp; none |</t>
+  </si>
+  <si>
+    <t>np.array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flow Engine specific variable which triggers object type.  </t>
+  </si>
+  <si>
+    <t>(consumer_mortgage, consumer_auto, consumer_student, cosnumer_card, consumer_unsecured, commercial_mortgage, commercial_amortizing, commercial_bullet, commercial_revolver, commercial_abl_revolver, commercial_abl_fixed)</t>
+  </si>
+  <si>
+    <t>Description of the loan product that is used to bucket for cash flow portfolios and stratification</t>
+  </si>
+  <si>
+    <t>Date on which the loan was originated and from which it starts accruing interest (generally the disbursal date)</t>
+  </si>
+  <si>
+    <t>Date on which the loan has its final maturity and all payments must be made</t>
+  </si>
+  <si>
+    <t>Date on which the tape as cut (also known as the as of date).  All current data is after this date</t>
+  </si>
+  <si>
+    <t>Must be &gt;= CUTOFFDATE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Original term in months beginning on the PMT_FIRSTPAY_DATE and ending on MATDATE</t>
+  </si>
+  <si>
+    <t>Age of the loan beginning on PMT_FIRSTPAY_DATE and ending on CUTOFFDATE</t>
+  </si>
+  <si>
+    <t>Remaining term of the loan calcualted as TERM_ORIG - TERM_AGE</t>
+  </si>
+  <si>
+    <t>Original outstanding principal balance of the loan on which interest accrues and which is due by MATDATE</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1580,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,18 +1898,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W60" sqref="W60"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
@@ -1947,25 +1980,25 @@
         <v>331</v>
       </c>
       <c r="Q1" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="S1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>463</v>
-      </c>
       <c r="W1" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1982,9 +2015,11 @@
         <v>313</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="H2" t="s">
         <v>290</v>
       </c>
@@ -1995,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W2" t="b">
         <v>1</v>
@@ -2015,10 +2050,10 @@
         <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>463</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>464</v>
       </c>
       <c r="H3" t="s">
         <v>291</v>
@@ -2046,7 +2081,12 @@
       <c r="D4" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" t="s">
+        <v>470</v>
+      </c>
       <c r="H4" t="s">
         <v>291</v>
       </c>
@@ -2062,7 +2102,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>287</v>
@@ -2074,10 +2114,10 @@
         <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H5" t="s">
         <v>292</v>
@@ -2105,7 +2145,9 @@
       <c r="D6" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="H6" t="s">
         <v>291</v>
       </c>
@@ -2132,7 +2174,9 @@
       <c r="D7" t="s">
         <v>324</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="H7" t="s">
         <v>290</v>
       </c>
@@ -2159,7 +2203,12 @@
       <c r="D8" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8" t="s">
+        <v>469</v>
+      </c>
       <c r="H8" t="s">
         <v>290</v>
       </c>
@@ -2175,7 +2224,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>289</v>
@@ -2186,12 +2235,14 @@
       <c r="D9" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="H9" t="s">
         <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -2202,7 +2253,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>289</v>
@@ -2213,12 +2264,14 @@
       <c r="D10" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="H10" t="s">
         <v>291</v>
       </c>
       <c r="I10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -2229,7 +2282,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>289</v>
@@ -2240,12 +2293,14 @@
       <c r="D11" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="H11" t="s">
         <v>291</v>
       </c>
       <c r="I11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -2256,7 +2311,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>289</v>
@@ -2267,12 +2322,14 @@
       <c r="D12" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="H12" t="s">
         <v>291</v>
       </c>
       <c r="I12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -2283,7 +2340,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>289</v>
@@ -2299,7 +2356,7 @@
         <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -2310,7 +2367,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
         <v>289</v>
@@ -2337,7 +2394,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
         <v>289</v>
@@ -2364,7 +2421,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
         <v>287</v>
@@ -2380,7 +2437,7 @@
         <v>291</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -2391,7 +2448,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
         <v>287</v>
@@ -2418,7 +2475,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>287</v>
@@ -2445,7 +2502,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>289</v>
@@ -2472,7 +2529,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
         <v>289</v>
@@ -2488,7 +2545,7 @@
         <v>292</v>
       </c>
       <c r="I20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -2499,7 +2556,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>289</v>
@@ -2515,7 +2572,7 @@
         <v>292</v>
       </c>
       <c r="I21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -2542,7 +2599,7 @@
         <v>291</v>
       </c>
       <c r="I22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -2623,7 +2680,7 @@
         <v>291</v>
       </c>
       <c r="I25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -2742,7 +2799,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B30" t="s">
         <v>289</v>
@@ -2931,7 +2988,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B37" t="s">
         <v>289</v>
@@ -2947,7 +3004,7 @@
         <v>291</v>
       </c>
       <c r="I37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -2958,13 +3015,16 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B38" t="s">
         <v>289</v>
       </c>
       <c r="C38" t="s">
         <v>321</v>
+      </c>
+      <c r="D38" t="s">
+        <v>462</v>
       </c>
       <c r="E38" s="2"/>
       <c r="H38" t="s">
@@ -2982,7 +3042,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B39" t="s">
         <v>289</v>
@@ -2998,7 +3058,7 @@
         <v>292</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -3009,7 +3069,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B40" t="s">
         <v>289</v>
@@ -3025,7 +3085,7 @@
         <v>292</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -3036,7 +3096,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s">
         <v>287</v>
@@ -3063,13 +3123,16 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s">
         <v>288</v>
       </c>
       <c r="C42" t="s">
         <v>321</v>
+      </c>
+      <c r="D42" t="s">
+        <v>462</v>
       </c>
       <c r="E42" s="2"/>
       <c r="H42" t="s">
@@ -3087,7 +3150,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B43" t="s">
         <v>288</v>
@@ -3114,13 +3177,16 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s">
         <v>288</v>
       </c>
       <c r="C44" t="s">
         <v>321</v>
+      </c>
+      <c r="D44" t="s">
+        <v>462</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" t="s">
@@ -3138,7 +3204,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B45" t="s">
         <v>289</v>
@@ -3165,7 +3231,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s">
         <v>288</v>
@@ -3192,7 +3258,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s">
         <v>288</v>
@@ -3219,7 +3285,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s">
         <v>288</v>
@@ -3246,7 +3312,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
         <v>287</v>
@@ -3275,7 +3341,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s">
         <v>289</v>
@@ -3302,7 +3368,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
@@ -3413,7 +3479,7 @@
         <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C55" t="s">
         <v>322</v>
@@ -3423,7 +3489,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H55" t="s">
         <v>290</v>
@@ -3440,10 +3506,10 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
         <v>322</v>
@@ -3453,7 +3519,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H56" t="s">
         <v>290</v>
@@ -3470,10 +3536,10 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C57" t="s">
         <v>322</v>
@@ -3483,7 +3549,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H57" t="s">
         <v>290</v>
@@ -3500,10 +3566,10 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
         <v>315</v>
@@ -3527,10 +3593,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
         <v>315</v>
@@ -3554,7 +3620,7 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s">
         <v>289</v>
@@ -3570,7 +3636,7 @@
         <v>292</v>
       </c>
       <c r="I60" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -3581,7 +3647,7 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s">
         <v>289</v>
@@ -3608,7 +3674,7 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s">
         <v>289</v>
@@ -3624,7 +3690,7 @@
         <v>292</v>
       </c>
       <c r="I62" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -3635,7 +3701,7 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s">
         <v>288</v>
@@ -3662,7 +3728,7 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s">
         <v>289</v>
@@ -3689,7 +3755,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -3824,7 +3890,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
         <v>323</v>
@@ -3836,10 +3902,10 @@
         <v>313</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>461</v>
       </c>
       <c r="H70" t="s">
         <v>291</v>
@@ -3856,18 +3922,24 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s">
         <v>287</v>
       </c>
       <c r="C71" t="s">
         <v>314</v>
+      </c>
+      <c r="D71" t="s">
+        <v>313</v>
       </c>
       <c r="E71" s="9"/>
       <c r="H71" t="s">
         <v>291</v>
       </c>
+      <c r="I71" t="s">
+        <v>309</v>
+      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -3877,7 +3949,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s">
         <v>289</v>
@@ -3885,12 +3957,18 @@
       <c r="C72" t="s">
         <v>318</v>
       </c>
+      <c r="D72" t="s">
+        <v>311</v>
+      </c>
       <c r="E72" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H72" t="s">
         <v>292</v>
       </c>
+      <c r="I72" t="s">
+        <v>369</v>
+      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
@@ -3912,7 +3990,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s">
         <v>289</v>
@@ -3920,7 +3998,16 @@
       <c r="C73" t="s">
         <v>318</v>
       </c>
+      <c r="D73" t="s">
+        <v>311</v>
+      </c>
       <c r="E73" s="3"/>
+      <c r="H73" t="s">
+        <v>292</v>
+      </c>
+      <c r="I73" t="s">
+        <v>369</v>
+      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
@@ -3930,7 +4017,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s">
         <v>289</v>
@@ -3938,7 +4025,16 @@
       <c r="C74" t="s">
         <v>318</v>
       </c>
+      <c r="D74" t="s">
+        <v>311</v>
+      </c>
       <c r="E74" s="3"/>
+      <c r="H74" t="s">
+        <v>292</v>
+      </c>
+      <c r="I74" t="s">
+        <v>369</v>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -3948,7 +4044,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s">
         <v>289</v>
@@ -3956,12 +4052,18 @@
       <c r="C75" t="s">
         <v>318</v>
       </c>
+      <c r="D75" t="s">
+        <v>311</v>
+      </c>
       <c r="E75" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H75" t="s">
         <v>292</v>
       </c>
+      <c r="I75" t="s">
+        <v>369</v>
+      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -3983,7 +4085,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B76" t="s">
         <v>289</v>
@@ -3991,7 +4093,16 @@
       <c r="C76" t="s">
         <v>318</v>
       </c>
+      <c r="D76" t="s">
+        <v>311</v>
+      </c>
       <c r="E76" s="3"/>
+      <c r="H76" t="s">
+        <v>292</v>
+      </c>
+      <c r="I76" t="s">
+        <v>370</v>
+      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
@@ -4001,7 +4112,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
         <v>289</v>
@@ -4009,7 +4120,16 @@
       <c r="C77" t="s">
         <v>318</v>
       </c>
+      <c r="D77" t="s">
+        <v>311</v>
+      </c>
       <c r="E77" s="3"/>
+      <c r="H77" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" t="s">
+        <v>370</v>
+      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -4022,7 +4142,7 @@
         <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s">
         <v>314</v>
@@ -4031,7 +4151,7 @@
         <v>313</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H78" t="s">
         <v>290</v>
@@ -4060,7 +4180,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s">
         <v>289</v>
@@ -4068,11 +4188,17 @@
       <c r="C79" t="s">
         <v>318</v>
       </c>
+      <c r="D79" t="s">
+        <v>311</v>
+      </c>
       <c r="E79" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H79" t="s">
         <v>290</v>
+      </c>
+      <c r="I79" t="s">
+        <v>308</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
@@ -4107,7 +4233,7 @@
         <v>313</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H80" t="s">
         <v>290</v>
@@ -4136,18 +4262,24 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B81" t="s">
         <v>289</v>
       </c>
       <c r="C81" t="s">
         <v>318</v>
+      </c>
+      <c r="D81" t="s">
+        <v>311</v>
       </c>
       <c r="E81" s="3"/>
       <c r="H81" t="s">
         <v>292</v>
       </c>
+      <c r="I81" t="s">
+        <v>370</v>
+      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -4169,7 +4301,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B82" t="s">
         <v>289</v>
@@ -4177,12 +4309,18 @@
       <c r="C82" t="s">
         <v>318</v>
       </c>
+      <c r="D82" t="s">
+        <v>311</v>
+      </c>
       <c r="E82" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H82" t="s">
         <v>290</v>
       </c>
+      <c r="I82" t="s">
+        <v>308</v>
+      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
@@ -4192,11 +4330,17 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
       </c>
+      <c r="C83" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" t="s">
+        <v>311</v>
+      </c>
       <c r="H83" t="s">
         <v>292</v>
       </c>
@@ -4209,11 +4353,17 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B84" t="s">
         <v>289</v>
       </c>
+      <c r="C84" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" t="s">
+        <v>311</v>
+      </c>
       <c r="H84" t="s">
         <v>292</v>
       </c>
@@ -4226,11 +4376,17 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B85" t="s">
         <v>289</v>
       </c>
+      <c r="C85" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" t="s">
+        <v>311</v>
+      </c>
       <c r="H85" t="s">
         <v>292</v>
       </c>
@@ -4243,11 +4399,17 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s">
         <v>289</v>
       </c>
+      <c r="C86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" t="s">
+        <v>311</v>
+      </c>
       <c r="H86" t="s">
         <v>292</v>
       </c>
@@ -4260,11 +4422,17 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
         <v>289</v>
       </c>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" t="s">
+        <v>311</v>
+      </c>
       <c r="H87" t="s">
         <v>292</v>
       </c>
@@ -4277,11 +4445,17 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
         <v>289</v>
       </c>
+      <c r="C88" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" t="s">
+        <v>311</v>
+      </c>
       <c r="H88" t="s">
         <v>292</v>
       </c>
@@ -4294,11 +4468,17 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s">
         <v>289</v>
       </c>
+      <c r="C89" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" t="s">
+        <v>311</v>
+      </c>
       <c r="H89" t="s">
         <v>292</v>
       </c>
@@ -4311,11 +4491,17 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B90" t="s">
         <v>289</v>
       </c>
+      <c r="C90" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" t="s">
+        <v>311</v>
+      </c>
       <c r="H90" t="s">
         <v>292</v>
       </c>
@@ -4328,11 +4514,17 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s">
         <v>289</v>
       </c>
+      <c r="C91" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" t="s">
+        <v>311</v>
+      </c>
       <c r="H91" t="s">
         <v>292</v>
       </c>
@@ -4345,11 +4537,17 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B92" t="s">
         <v>289</v>
       </c>
+      <c r="C92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" t="s">
+        <v>311</v>
+      </c>
       <c r="H92" t="s">
         <v>292</v>
       </c>
@@ -4362,11 +4560,17 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B93" t="s">
         <v>289</v>
       </c>
+      <c r="C93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" t="s">
+        <v>311</v>
+      </c>
       <c r="H93" t="s">
         <v>292</v>
       </c>
@@ -4379,11 +4583,17 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B94" t="s">
         <v>289</v>
       </c>
+      <c r="C94" t="s">
+        <v>321</v>
+      </c>
+      <c r="D94" t="s">
+        <v>462</v>
+      </c>
       <c r="H94" t="s">
         <v>290</v>
       </c>
@@ -4396,11 +4606,17 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B95" t="s">
         <v>288</v>
       </c>
+      <c r="C95" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" t="s">
+        <v>462</v>
+      </c>
       <c r="H95" t="s">
         <v>290</v>
       </c>
@@ -4413,7 +4629,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B96" t="s">
         <v>287</v>
@@ -4437,7 +4653,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B97" t="s">
         <v>287</v>
@@ -4461,13 +4677,16 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
         <v>318</v>
+      </c>
+      <c r="D98" t="s">
+        <v>311</v>
       </c>
       <c r="E98" s="3"/>
       <c r="H98" t="s">
@@ -4482,13 +4701,16 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
         <v>318</v>
+      </c>
+      <c r="D99" t="s">
+        <v>311</v>
       </c>
       <c r="E99" s="3"/>
       <c r="H99" t="s">
@@ -4503,13 +4725,16 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
         <v>318</v>
+      </c>
+      <c r="D100" t="s">
+        <v>311</v>
       </c>
       <c r="E100" s="3"/>
       <c r="H100" t="s">
@@ -4527,7 +4752,16 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="B101" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" t="s">
+        <v>311</v>
       </c>
       <c r="E101" s="3"/>
       <c r="H101" t="s">
@@ -4542,7 +4776,16 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" t="s">
+        <v>313</v>
       </c>
       <c r="E102" s="3"/>
       <c r="H102" t="s">
@@ -4557,7 +4800,16 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>396</v>
+        <v>393</v>
+      </c>
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
+        <v>311</v>
       </c>
       <c r="E103" s="3"/>
       <c r="H103" t="s">
@@ -4572,7 +4824,16 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>397</v>
+        <v>394</v>
+      </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>314</v>
+      </c>
+      <c r="D104" t="s">
+        <v>313</v>
       </c>
       <c r="E104" s="3"/>
       <c r="H104" t="s">
@@ -4587,7 +4848,16 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="B105" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" t="s">
+        <v>313</v>
       </c>
       <c r="E105" s="3"/>
       <c r="H105" t="s">
@@ -4602,13 +4872,16 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B106" t="s">
         <v>289</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
+      </c>
+      <c r="D106" t="s">
+        <v>311</v>
       </c>
       <c r="E106" s="3"/>
       <c r="H106" t="s">
@@ -4623,13 +4896,16 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B107" t="s">
         <v>289</v>
       </c>
       <c r="C107" t="s">
         <v>318</v>
+      </c>
+      <c r="D107" t="s">
+        <v>311</v>
       </c>
       <c r="E107" s="3"/>
       <c r="H107" t="s">
@@ -4644,13 +4920,16 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B108" t="s">
         <v>289</v>
       </c>
       <c r="C108" t="s">
         <v>318</v>
+      </c>
+      <c r="D108" t="s">
+        <v>311</v>
       </c>
       <c r="E108" s="3"/>
       <c r="H108" t="s">
@@ -4665,13 +4944,16 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s">
         <v>320</v>
       </c>
       <c r="C109" t="s">
         <v>318</v>
+      </c>
+      <c r="D109" t="s">
+        <v>311</v>
       </c>
       <c r="E109" s="3"/>
       <c r="H109" t="s">
@@ -4689,7 +4971,16 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="B110" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" t="s">
+        <v>313</v>
       </c>
       <c r="H110" t="s">
         <v>291</v>
@@ -4708,6 +4999,15 @@
       <c r="A111" t="s">
         <v>298</v>
       </c>
+      <c r="B111" t="s">
+        <v>287</v>
+      </c>
+      <c r="C111" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" t="s">
+        <v>312</v>
+      </c>
       <c r="H111" t="s">
         <v>292</v>
       </c>
@@ -4723,7 +5023,16 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="B112" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" t="s">
+        <v>315</v>
+      </c>
+      <c r="D112" t="s">
+        <v>324</v>
       </c>
       <c r="H112" t="s">
         <v>290</v>
@@ -4740,7 +5049,16 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>348</v>
+        <v>346</v>
+      </c>
+      <c r="B113" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" t="s">
+        <v>324</v>
       </c>
       <c r="H113" t="s">
         <v>290</v>
@@ -4759,6 +5077,15 @@
       <c r="A114" t="s">
         <v>299</v>
       </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" t="s">
+        <v>313</v>
+      </c>
       <c r="H114" t="s">
         <v>291</v>
       </c>
@@ -4776,6 +5103,15 @@
       <c r="A115" t="s">
         <v>300</v>
       </c>
+      <c r="B115" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115" t="s">
+        <v>324</v>
+      </c>
       <c r="H115" t="s">
         <v>290</v>
       </c>
@@ -4791,7 +5127,16 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>403</v>
+        <v>400</v>
+      </c>
+      <c r="B116" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" t="s">
+        <v>324</v>
       </c>
       <c r="H116" t="s">
         <v>290</v>
@@ -4808,7 +5153,16 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>404</v>
+        <v>401</v>
+      </c>
+      <c r="B117" t="s">
+        <v>289</v>
+      </c>
+      <c r="C117" t="s">
+        <v>318</v>
+      </c>
+      <c r="D117" t="s">
+        <v>311</v>
       </c>
       <c r="H117" t="s">
         <v>290</v>
@@ -4825,7 +5179,16 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>348</v>
+      </c>
+      <c r="B118" t="s">
+        <v>288</v>
+      </c>
+      <c r="C118" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" t="s">
+        <v>324</v>
       </c>
       <c r="H118" t="s">
         <v>290</v>
@@ -4844,6 +5207,15 @@
       <c r="A119" t="s">
         <v>301</v>
       </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" t="s">
+        <v>313</v>
+      </c>
       <c r="H119" t="s">
         <v>291</v>
       </c>
@@ -4868,7 +5240,19 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="B120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" t="s">
+        <v>319</v>
+      </c>
+      <c r="D120" t="s">
+        <v>312</v>
+      </c>
+      <c r="H120" t="s">
+        <v>292</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
@@ -4891,7 +5275,19 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>405</v>
+        <v>402</v>
+      </c>
+      <c r="B121" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" t="s">
+        <v>314</v>
+      </c>
+      <c r="D121" t="s">
+        <v>313</v>
+      </c>
+      <c r="H121" t="s">
+        <v>292</v>
       </c>
       <c r="J121" t="b">
         <v>0</v>
@@ -4914,7 +5310,16 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="B122" t="s">
+        <v>378</v>
+      </c>
+      <c r="C122" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" t="s">
+        <v>326</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
@@ -4937,7 +5342,16 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="B123" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" t="s">
+        <v>318</v>
+      </c>
+      <c r="D123" t="s">
+        <v>311</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
@@ -4948,7 +5362,16 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="B124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" t="s">
+        <v>311</v>
       </c>
       <c r="J124" t="b">
         <v>0</v>
@@ -4959,7 +5382,16 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="B125" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" t="s">
+        <v>313</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
@@ -4978,8 +5410,11 @@
       <c r="C126" t="s">
         <v>318</v>
       </c>
+      <c r="D126" t="s">
+        <v>311</v>
+      </c>
       <c r="E126" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H126" t="s">
         <v>292</v>
@@ -5017,7 +5452,7 @@
         <v>313</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H127" t="s">
         <v>290</v>
@@ -5058,7 +5493,7 @@
         <v>313</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H128" t="s">
         <v>290</v>
@@ -5163,7 +5598,7 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B131" t="s">
         <v>287</v>
@@ -5201,7 +5636,7 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B132" t="s">
         <v>287</v>
@@ -5239,10 +5674,10 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C133" t="s">
         <v>319</v>
@@ -5274,7 +5709,16 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="B134" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" t="s">
+        <v>311</v>
       </c>
       <c r="H134" t="s">
         <v>292</v>
@@ -5288,7 +5732,16 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="B135" t="s">
+        <v>288</v>
+      </c>
+      <c r="C135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" t="s">
+        <v>324</v>
       </c>
       <c r="H135" t="s">
         <v>290</v>
@@ -5302,7 +5755,16 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" t="s">
+        <v>313</v>
       </c>
       <c r="H136" t="s">
         <v>292</v>
@@ -5316,7 +5778,16 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D137" t="s">
+        <v>313</v>
       </c>
       <c r="H137" t="s">
         <v>292</v>
@@ -5330,7 +5801,16 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="B138" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" t="s">
+        <v>319</v>
+      </c>
+      <c r="D138" t="s">
+        <v>312</v>
       </c>
       <c r="H138" t="s">
         <v>292</v>
@@ -5352,6 +5832,9 @@
       <c r="C139" t="s">
         <v>318</v>
       </c>
+      <c r="D139" t="s">
+        <v>311</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="H139" t="s">
         <v>292</v>
@@ -5365,7 +5848,16 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>361</v>
+        <v>359</v>
+      </c>
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" t="s">
+        <v>314</v>
+      </c>
+      <c r="D140" t="s">
+        <v>313</v>
       </c>
       <c r="E140" s="9"/>
       <c r="H140" t="s">
@@ -5387,6 +5879,9 @@
       </c>
       <c r="C141" t="s">
         <v>318</v>
+      </c>
+      <c r="D141" t="s">
+        <v>311</v>
       </c>
       <c r="E141" s="3"/>
       <c r="H141" t="s">

--- a/DataDictionary05092023.xlsx
+++ b/DataDictionary05092023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/Developer/lib_python/tapestratification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/lib/tapestratification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8E7B7-0E72-5A4B-B90F-FEDC54240AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB630E-BB81-AB49-B12C-1BF99483DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
   </bookViews>
@@ -1023,9 +1023,6 @@
     <t>np.bool_</t>
   </si>
   <si>
-    <t>Consumer</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -1410,18 +1407,6 @@
     <t/>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CommercialAmortizing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CommercialBullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CommercialRevolver</t>
-  </si>
-  <si>
     <t>CommercialABL</t>
   </si>
   <si>
@@ -1465,6 +1450,21 @@
   </si>
   <si>
     <t>Original outstanding principal balance of the loan on which interest accrues and which is due by MATDATE</t>
+  </si>
+  <si>
+    <t>ConsumerLoan</t>
+  </si>
+  <si>
+    <t>CommercialLoan</t>
+  </si>
+  <si>
+    <t>CommercialAmortizing</t>
+  </si>
+  <si>
+    <t>CommercialBullet</t>
+  </si>
+  <si>
+    <t>CommercialRevolver</t>
   </si>
 </sst>
 </file>
@@ -1899,10 +1899,10 @@
   <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1962,43 +1962,43 @@
         <v>283</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>335</v>
-      </c>
       <c r="P1" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2015,10 +2015,10 @@
         <v>313</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H2" t="s">
         <v>290</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W2" t="b">
         <v>1</v>
@@ -2050,10 +2050,10 @@
         <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H3" t="s">
         <v>291</v>
@@ -2082,10 +2082,10 @@
         <v>313</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" t="s">
         <v>465</v>
-      </c>
-      <c r="F4" t="s">
-        <v>470</v>
       </c>
       <c r="H4" t="s">
         <v>291</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>287</v>
@@ -2114,10 +2114,10 @@
         <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" t="s">
         <v>340</v>
-      </c>
-      <c r="F5" t="s">
-        <v>341</v>
       </c>
       <c r="H5" t="s">
         <v>292</v>
@@ -2146,7 +2146,7 @@
         <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H6" t="s">
         <v>291</v>
@@ -2175,7 +2175,7 @@
         <v>324</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H7" t="s">
         <v>290</v>
@@ -2204,10 +2204,10 @@
         <v>324</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H8" t="s">
         <v>290</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>289</v>
@@ -2236,13 +2236,13 @@
         <v>312</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H9" t="s">
         <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>289</v>
@@ -2265,13 +2265,13 @@
         <v>312</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H10" t="s">
         <v>291</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>289</v>
@@ -2294,13 +2294,13 @@
         <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H11" t="s">
         <v>291</v>
       </c>
       <c r="I11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>289</v>
@@ -2323,13 +2323,13 @@
         <v>311</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H12" t="s">
         <v>291</v>
       </c>
       <c r="I12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>289</v>
@@ -2356,7 +2356,7 @@
         <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>289</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
         <v>289</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>287</v>
@@ -2437,7 +2437,7 @@
         <v>291</v>
       </c>
       <c r="I16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>287</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
         <v>287</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
         <v>289</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
         <v>289</v>
@@ -2545,7 +2545,7 @@
         <v>292</v>
       </c>
       <c r="I20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
         <v>289</v>
@@ -2572,7 +2572,7 @@
         <v>292</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>291</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>291</v>
       </c>
       <c r="I25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
         <v>289</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B37" t="s">
         <v>289</v>
@@ -3004,7 +3004,7 @@
         <v>291</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B38" t="s">
         <v>289</v>
@@ -3024,7 +3024,7 @@
         <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E38" s="2"/>
       <c r="H38" t="s">
@@ -3042,7 +3042,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B39" t="s">
         <v>289</v>
@@ -3058,7 +3058,7 @@
         <v>292</v>
       </c>
       <c r="I39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B40" t="s">
         <v>289</v>
@@ -3085,7 +3085,7 @@
         <v>292</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s">
         <v>287</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s">
         <v>288</v>
@@ -3132,7 +3132,7 @@
         <v>321</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E42" s="2"/>
       <c r="H42" t="s">
@@ -3150,7 +3150,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s">
         <v>288</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s">
         <v>288</v>
@@ -3186,7 +3186,7 @@
         <v>321</v>
       </c>
       <c r="D44" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" t="s">
@@ -3204,7 +3204,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B45" t="s">
         <v>289</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s">
         <v>288</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
         <v>288</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s">
         <v>288</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s">
         <v>287</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s">
         <v>289</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
@@ -3479,7 +3479,7 @@
         <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
         <v>322</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H55" t="s">
         <v>290</v>
@@ -3506,10 +3506,10 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
         <v>322</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H56" t="s">
         <v>290</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C57" t="s">
         <v>322</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H57" t="s">
         <v>290</v>
@@ -3566,10 +3566,10 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s">
         <v>315</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
         <v>315</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s">
         <v>289</v>
@@ -3636,7 +3636,7 @@
         <v>292</v>
       </c>
       <c r="I60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s">
         <v>289</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s">
         <v>289</v>
@@ -3690,7 +3690,7 @@
         <v>292</v>
       </c>
       <c r="I62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s">
         <v>288</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s">
         <v>289</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s">
         <v>323</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s">
         <v>323</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
         <v>323</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s">
         <v>323</v>
@@ -3902,10 +3902,10 @@
         <v>313</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F70" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H70" t="s">
         <v>291</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s">
         <v>287</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s">
         <v>289</v>
@@ -3961,13 +3961,13 @@
         <v>311</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H72" t="s">
         <v>292</v>
       </c>
       <c r="I72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B73" t="s">
         <v>289</v>
@@ -4006,7 +4006,7 @@
         <v>292</v>
       </c>
       <c r="I73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B74" t="s">
         <v>289</v>
@@ -4033,7 +4033,7 @@
         <v>292</v>
       </c>
       <c r="I74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s">
         <v>289</v>
@@ -4056,13 +4056,13 @@
         <v>311</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H75" t="s">
         <v>292</v>
       </c>
       <c r="I75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B76" t="s">
         <v>289</v>
@@ -4101,7 +4101,7 @@
         <v>292</v>
       </c>
       <c r="I76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B77" t="s">
         <v>289</v>
@@ -4128,7 +4128,7 @@
         <v>292</v>
       </c>
       <c r="I77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s">
         <v>314</v>
@@ -4151,7 +4151,7 @@
         <v>313</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H78" t="s">
         <v>290</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B79" t="s">
         <v>289</v>
@@ -4192,7 +4192,7 @@
         <v>311</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H79" t="s">
         <v>290</v>
@@ -4233,7 +4233,7 @@
         <v>313</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H80" t="s">
         <v>290</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B81" t="s">
         <v>289</v>
@@ -4278,7 +4278,7 @@
         <v>292</v>
       </c>
       <c r="I81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B82" t="s">
         <v>289</v>
@@ -4313,7 +4313,7 @@
         <v>311</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H82" t="s">
         <v>290</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B84" t="s">
         <v>289</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s">
         <v>289</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s">
         <v>289</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B87" t="s">
         <v>289</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B88" t="s">
         <v>289</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B89" t="s">
         <v>289</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B90" t="s">
         <v>289</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s">
         <v>289</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B92" t="s">
         <v>289</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s">
         <v>289</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B94" t="s">
         <v>289</v>
@@ -4592,7 +4592,7 @@
         <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H94" t="s">
         <v>290</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B95" t="s">
         <v>288</v>
@@ -4615,7 +4615,7 @@
         <v>321</v>
       </c>
       <c r="D95" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H95" t="s">
         <v>290</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B96" t="s">
         <v>287</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B97" t="s">
         <v>287</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B98" t="s">
         <v>289</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B99" t="s">
         <v>289</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B100" t="s">
         <v>289</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B101" t="s">
         <v>289</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B102" t="s">
         <v>287</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B103" t="s">
         <v>289</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B104" t="s">
         <v>287</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B105" t="s">
         <v>287</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B106" t="s">
         <v>289</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B107" t="s">
         <v>289</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
         <v>289</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B109" t="s">
         <v>320</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
         <v>287</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s">
         <v>288</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
         <v>288</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B116" t="s">
         <v>288</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B117" t="s">
         <v>289</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B118" t="s">
         <v>288</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
         <v>289</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" t="s">
         <v>287</v>
@@ -5310,10 +5310,10 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C122" t="s">
         <v>322</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
         <v>289</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s">
         <v>289</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
         <v>287</v>
@@ -5414,7 +5414,7 @@
         <v>311</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H126" t="s">
         <v>292</v>
@@ -5452,7 +5452,7 @@
         <v>313</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H127" t="s">
         <v>290</v>
@@ -5493,7 +5493,7 @@
         <v>313</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H128" t="s">
         <v>290</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s">
         <v>287</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B132" t="s">
         <v>287</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s">
         <v>289</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B134" t="s">
         <v>289</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B135" t="s">
         <v>288</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B136" t="s">
         <v>287</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B137" t="s">
         <v>287</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B138" t="s">
         <v>288</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B140" t="s">
         <v>287</v>

--- a/DataDictionary05092023.xlsx
+++ b/DataDictionary05092023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/lib/tapestratification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB630E-BB81-AB49-B12C-1BF99483DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E00D2-7042-854C-95FB-B687C0091DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
+    <workbookView xWindow="51740" yWindow="1220" windowWidth="48320" windowHeight="24560" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$142</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="498">
   <si>
     <t>loanid</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>NOTE: Consider ENUM</t>
   </si>
   <si>
-    <t>np.bool_</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -1086,15 +1083,9 @@
     <t>mod_startdate</t>
   </si>
   <si>
-    <t>Property appraisal / value as of ORIGDATE</t>
-  </si>
-  <si>
     <t>Zip code where property is located</t>
   </si>
   <si>
-    <t>+4 of zip code where property is located</t>
-  </si>
-  <si>
     <t>Loan to Value ratio as of ORIGDATE equal to PROP_APPRAISAL / ORIGBAL</t>
   </si>
   <si>
@@ -1176,9 +1167,6 @@
     <t>Flag</t>
   </si>
   <si>
-    <t xml:space="preserve"> (True / Flase)</t>
-  </si>
-  <si>
     <t>IDxRef</t>
   </si>
   <si>
@@ -1425,18 +1413,6 @@
     <t>Description of the loan product that is used to bucket for cash flow portfolios and stratification</t>
   </si>
   <si>
-    <t>Date on which the loan was originated and from which it starts accruing interest (generally the disbursal date)</t>
-  </si>
-  <si>
-    <t>Date on which the loan has its final maturity and all payments must be made</t>
-  </si>
-  <si>
-    <t>Date on which the tape as cut (also known as the as of date).  All current data is after this date</t>
-  </si>
-  <si>
-    <t>Must be &gt;= CUTOFFDATE</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1465,6 +1441,99 @@
   </si>
   <si>
     <t>CommercialRevolver</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>&lt;=matdate</t>
+  </si>
+  <si>
+    <t>? What is this?</t>
+  </si>
+  <si>
+    <t>Date on which foreclosure sale took place</t>
+  </si>
+  <si>
+    <t>&gt;fc_startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date on which bankruptcy </t>
+  </si>
+  <si>
+    <t>Date that PROP_VALUE was acquired</t>
+  </si>
+  <si>
+    <t>Updated version of PROP_APPRAISAL as of PROP_VALUE_DATE</t>
+  </si>
+  <si>
+    <t>Type of lien on property securing loan</t>
+  </si>
+  <si>
+    <t>Manufacturer of property securing loan</t>
+  </si>
+  <si>
+    <t>Model of property securing loan</t>
+  </si>
+  <si>
+    <t>Year of manufacture for property securing loan</t>
+  </si>
+  <si>
+    <t>Current balance of escrow account (if any) as of CUTOFFDATE</t>
+  </si>
+  <si>
+    <t>If escrow is advanced for any reason, this specifies the type of advance (percentage, dollar based, etc…)</t>
+  </si>
+  <si>
+    <t>Property usage (owner, non-owner, second, NA)</t>
+  </si>
+  <si>
+    <t>OO; NOO; 2ND; 3RD; NA</t>
+  </si>
+  <si>
+    <t>Number of units in property securing loan</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD &gt;=origdate</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD &gt;=cutoffdate</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD date on which the loan has its final maturity and all payments must be made</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD date on which the tape is cut (also known as the as-of-date).  All current data is after this date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property appraisal / value as of ORIGDATE.  This is the appraisal value for mortgages, otherwise it is the sale price.  </t>
+  </si>
+  <si>
+    <t>The state in which the property is located or registered</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>USA +4 of zip code where property is located</t>
+  </si>
+  <si>
+    <t>TRUE; FALSE; Y; N; T; F; 1; 0</t>
+  </si>
+  <si>
+    <t>Current outstanding principal balance on CUTOFFDATE of the loan on which interest accrues and which is due by MATDATE</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD date the loan was originated.  Insterest accrual starts on this date and typically this is also the disbursment date</t>
+  </si>
+  <si>
+    <t>YYYYMM date on which the first loan payment is due. First payment due date is generally either on the first day the first or second subsequent month following ORIGDATE (OR) the date one month from ORIGDATE.  The Engine uses PMT_FIRSTPAY_DATE to determine the day of the month on which payments are made.</t>
+  </si>
+  <si>
+    <t>StratSummSet</t>
   </si>
 </sst>
 </file>
@@ -1896,13 +1965,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W141"/>
+  <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1913,24 +1982,24 @@
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17">
+    <row r="1" spans="1:24" ht="17">
       <c r="A1" s="14" t="s">
         <v>307</v>
       </c>
@@ -1958,50 +2027,53 @@
       <c r="I1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>470</v>
-      </c>
       <c r="L1" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>330</v>
-      </c>
       <c r="Q1" s="16" t="s">
-        <v>471</v>
+        <v>329</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>451</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2015,10 +2087,10 @@
         <v>313</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H2" t="s">
         <v>290</v>
@@ -2026,17 +2098,35 @@
       <c r="I2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>454</v>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2050,10 +2140,10 @@
         <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H3" t="s">
         <v>291</v>
@@ -2061,14 +2151,32 @@
       <c r="I3" t="s">
         <v>309</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2082,10 +2190,10 @@
         <v>313</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H4" t="s">
         <v>291</v>
@@ -2093,16 +2201,34 @@
       <c r="I4" t="s">
         <v>309</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
         <v>287</v>
@@ -2114,10 +2240,10 @@
         <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
         <v>339</v>
-      </c>
-      <c r="F5" t="s">
-        <v>340</v>
       </c>
       <c r="H5" t="s">
         <v>292</v>
@@ -2125,14 +2251,32 @@
       <c r="I5" t="s">
         <v>309</v>
       </c>
-      <c r="J5" t="b">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
         <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2290,10 @@
         <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>461</v>
+        <v>495</v>
+      </c>
+      <c r="F6" t="s">
+        <v>484</v>
       </c>
       <c r="H6" t="s">
         <v>291</v>
@@ -2154,14 +2301,32 @@
       <c r="I6" t="s">
         <v>310</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2340,10 @@
         <v>324</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>462</v>
+        <v>487</v>
+      </c>
+      <c r="F7" t="s">
+        <v>485</v>
       </c>
       <c r="H7" t="s">
         <v>290</v>
@@ -2183,14 +2351,32 @@
       <c r="I7" t="s">
         <v>308</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2204,10 +2390,10 @@
         <v>324</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="H8" t="s">
         <v>290</v>
@@ -2215,16 +2401,34 @@
       <c r="I8" t="s">
         <v>308</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
         <v>289</v>
@@ -2236,24 +2440,42 @@
         <v>312</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H9" t="s">
         <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
         <v>289</v>
@@ -2265,24 +2487,42 @@
         <v>312</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H10" t="s">
         <v>291</v>
       </c>
       <c r="I10" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>289</v>
@@ -2294,24 +2534,42 @@
         <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H11" t="s">
         <v>291</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>289</v>
@@ -2323,24 +2581,42 @@
         <v>311</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H12" t="s">
         <v>291</v>
       </c>
       <c r="I12" t="s">
-        <v>369</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
       </c>
       <c r="W12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>289</v>
@@ -2351,23 +2627,43 @@
       <c r="D13" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="H13" t="s">
         <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>369</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B14" t="s">
         <v>289</v>
@@ -2385,16 +2681,34 @@
       <c r="I14" t="s">
         <v>308</v>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
         <v>289</v>
@@ -2412,16 +2726,34 @@
       <c r="I15" t="s">
         <v>308</v>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
         <v>287</v>
@@ -2437,18 +2769,36 @@
         <v>291</v>
       </c>
       <c r="I16" t="s">
-        <v>369</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
       </c>
       <c r="W16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B17" t="s">
         <v>287</v>
@@ -2466,16 +2816,34 @@
       <c r="I17" t="s">
         <v>308</v>
       </c>
-      <c r="J17" t="b">
-        <v>1</v>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
         <v>287</v>
@@ -2493,16 +2861,34 @@
       <c r="I18" t="s">
         <v>308</v>
       </c>
-      <c r="J18" t="b">
-        <v>1</v>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>289</v>
@@ -2520,16 +2906,34 @@
       <c r="I19" t="s">
         <v>308</v>
       </c>
-      <c r="J19" t="b">
-        <v>1</v>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s">
         <v>289</v>
@@ -2545,18 +2949,36 @@
         <v>292</v>
       </c>
       <c r="I20" t="s">
-        <v>369</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B21" t="s">
         <v>289</v>
@@ -2572,16 +2994,34 @@
         <v>292</v>
       </c>
       <c r="I21" t="s">
-        <v>369</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2599,16 +3039,34 @@
         <v>291</v>
       </c>
       <c r="I22" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2628,14 +3086,32 @@
       <c r="I23" t="s">
         <v>309</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
       </c>
       <c r="W23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2655,14 +3131,32 @@
       <c r="I24" t="s">
         <v>308</v>
       </c>
-      <c r="J24" t="b">
-        <v>1</v>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2680,16 +3174,34 @@
         <v>291</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2709,14 +3221,32 @@
       <c r="I26" t="s">
         <v>308</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
       </c>
       <c r="W26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2736,14 +3266,32 @@
       <c r="I27" t="s">
         <v>308</v>
       </c>
-      <c r="J27" t="b">
-        <v>1</v>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2763,14 +3311,32 @@
       <c r="I28" t="s">
         <v>308</v>
       </c>
-      <c r="J28" t="b">
-        <v>1</v>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
       </c>
       <c r="W28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2790,16 +3356,34 @@
       <c r="I29" t="s">
         <v>309</v>
       </c>
-      <c r="J29" t="b">
-        <v>1</v>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
       </c>
       <c r="W29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B30" t="s">
         <v>289</v>
@@ -2817,14 +3401,32 @@
       <c r="I30" t="s">
         <v>308</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
       </c>
       <c r="W30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2844,14 +3446,32 @@
       <c r="I31" t="s">
         <v>308</v>
       </c>
-      <c r="J31" t="b">
-        <v>1</v>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
       </c>
       <c r="W31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2871,14 +3491,32 @@
       <c r="I32" t="s">
         <v>308</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
       </c>
       <c r="W32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2898,14 +3536,32 @@
       <c r="I33" t="s">
         <v>308</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
       </c>
       <c r="W33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2925,14 +3581,32 @@
       <c r="I34" t="s">
         <v>308</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
       </c>
       <c r="W34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2952,14 +3626,32 @@
       <c r="I35" t="s">
         <v>308</v>
       </c>
-      <c r="J35" t="b">
-        <v>1</v>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
       </c>
       <c r="W35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -2979,16 +3671,34 @@
       <c r="I36" t="s">
         <v>308</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
       </c>
       <c r="W36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B37" t="s">
         <v>289</v>
@@ -3004,18 +3714,36 @@
         <v>291</v>
       </c>
       <c r="I37" t="s">
-        <v>369</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
       </c>
       <c r="W37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B38" t="s">
         <v>289</v>
@@ -3024,7 +3752,7 @@
         <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E38" s="2"/>
       <c r="H38" t="s">
@@ -3033,16 +3761,34 @@
       <c r="I38" t="s">
         <v>308</v>
       </c>
-      <c r="J38" t="b">
-        <v>1</v>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
       </c>
       <c r="W38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B39" t="s">
         <v>289</v>
@@ -3058,18 +3804,36 @@
         <v>292</v>
       </c>
       <c r="I39" t="s">
-        <v>369</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
       </c>
       <c r="W39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B40" t="s">
         <v>289</v>
@@ -3085,18 +3849,36 @@
         <v>292</v>
       </c>
       <c r="I40" t="s">
-        <v>369</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
       </c>
       <c r="W40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s">
         <v>287</v>
@@ -3114,16 +3896,34 @@
       <c r="I41" t="s">
         <v>309</v>
       </c>
-      <c r="J41" t="b">
-        <v>1</v>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
       </c>
       <c r="W41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s">
         <v>288</v>
@@ -3132,7 +3932,7 @@
         <v>321</v>
       </c>
       <c r="D42" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E42" s="2"/>
       <c r="H42" t="s">
@@ -3141,16 +3941,34 @@
       <c r="I42" t="s">
         <v>308</v>
       </c>
-      <c r="J42" t="b">
-        <v>1</v>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
       </c>
       <c r="W42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s">
         <v>288</v>
@@ -3161,23 +3979,46 @@
       <c r="D43" t="s">
         <v>324</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F43" t="s">
+        <v>485</v>
+      </c>
       <c r="H43" t="s">
         <v>290</v>
       </c>
       <c r="I43" t="s">
         <v>308</v>
       </c>
-      <c r="J43" t="b">
-        <v>1</v>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
       </c>
       <c r="W43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B44" t="s">
         <v>288</v>
@@ -3186,7 +4027,7 @@
         <v>321</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E44" s="2"/>
       <c r="H44" t="s">
@@ -3195,16 +4036,34 @@
       <c r="I44" t="s">
         <v>308</v>
       </c>
-      <c r="J44" t="b">
-        <v>1</v>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
       </c>
       <c r="W44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B45" t="s">
         <v>289</v>
@@ -3222,16 +4081,34 @@
       <c r="I45" t="s">
         <v>309</v>
       </c>
-      <c r="J45" t="b">
-        <v>1</v>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
       </c>
       <c r="W45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s">
         <v>288</v>
@@ -3243,22 +4120,43 @@
         <v>324</v>
       </c>
       <c r="E46" s="2"/>
+      <c r="F46" t="s">
+        <v>468</v>
+      </c>
       <c r="H46" t="s">
         <v>290</v>
       </c>
       <c r="I46" t="s">
         <v>308</v>
       </c>
-      <c r="J46" t="b">
-        <v>1</v>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
       </c>
       <c r="W46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s">
         <v>288</v>
@@ -3276,16 +4174,34 @@
       <c r="I47" t="s">
         <v>308</v>
       </c>
-      <c r="J47" t="b">
-        <v>1</v>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
       </c>
       <c r="W47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s">
         <v>288</v>
@@ -3303,16 +4219,34 @@
       <c r="I48" t="s">
         <v>308</v>
       </c>
-      <c r="J48" t="b">
-        <v>1</v>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
       </c>
       <c r="W48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="X48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s">
         <v>287</v>
@@ -3332,16 +4266,34 @@
       <c r="I49" t="s">
         <v>309</v>
       </c>
-      <c r="J49" t="b">
-        <v>1</v>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
       </c>
       <c r="W49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s">
         <v>289</v>
@@ -3359,16 +4311,34 @@
       <c r="I50" t="s">
         <v>308</v>
       </c>
-      <c r="J50" t="b">
-        <v>1</v>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <v>0</v>
       </c>
       <c r="W50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
@@ -3386,14 +4356,32 @@
       <c r="I51" t="s">
         <v>308</v>
       </c>
-      <c r="J51" t="b">
-        <v>1</v>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
       </c>
       <c r="W51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -3413,14 +4401,32 @@
       <c r="I52" t="s">
         <v>309</v>
       </c>
-      <c r="J52" t="b">
-        <v>1</v>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
       </c>
       <c r="W52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -3440,14 +4446,32 @@
       <c r="I53" t="s">
         <v>309</v>
       </c>
-      <c r="J53" t="b">
-        <v>1</v>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
       </c>
       <c r="W53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -3467,29 +4491,47 @@
       <c r="I54" t="s">
         <v>309</v>
       </c>
-      <c r="J54" t="b">
-        <v>1</v>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="b">
+        <v>0</v>
       </c>
       <c r="W54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C55" t="s">
         <v>322</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>467</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" t="s">
-        <v>378</v>
+      <c r="F55" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="H55" t="s">
         <v>290</v>
@@ -3497,29 +4539,47 @@
       <c r="I55" t="s">
         <v>308</v>
       </c>
-      <c r="J55" t="b">
-        <v>1</v>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
       </c>
       <c r="W55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C56" t="s">
         <v>322</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>467</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" t="s">
-        <v>378</v>
+      <c r="F56" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="H56" t="s">
         <v>290</v>
@@ -3527,29 +4587,47 @@
       <c r="I56" t="s">
         <v>308</v>
       </c>
-      <c r="J56" t="b">
-        <v>1</v>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="b">
+        <v>0</v>
       </c>
       <c r="W56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C57" t="s">
         <v>322</v>
       </c>
       <c r="D57" t="s">
-        <v>326</v>
+        <v>467</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" t="s">
-        <v>378</v>
+      <c r="F57" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="H57" t="s">
         <v>290</v>
@@ -3557,19 +4635,37 @@
       <c r="I57" t="s">
         <v>308</v>
       </c>
-      <c r="J57" t="b">
-        <v>1</v>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
       </c>
       <c r="W57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C58" t="s">
         <v>315</v>
@@ -3577,26 +4673,46 @@
       <c r="D58" t="s">
         <v>324</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="H58" t="s">
         <v>290</v>
       </c>
       <c r="I58" t="s">
         <v>308</v>
       </c>
-      <c r="J58" t="b">
-        <v>1</v>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
       </c>
       <c r="W58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C59" t="s">
         <v>315</v>
@@ -3604,23 +4720,43 @@
       <c r="D59" t="s">
         <v>324</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="H59" t="s">
         <v>290</v>
       </c>
       <c r="I59" t="s">
         <v>308</v>
       </c>
-      <c r="J59" t="b">
-        <v>1</v>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
       </c>
       <c r="W59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s">
         <v>289</v>
@@ -3636,18 +4772,36 @@
         <v>292</v>
       </c>
       <c r="I60" t="s">
-        <v>368</v>
-      </c>
-      <c r="J60" t="b">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s">
         <v>289</v>
@@ -3665,16 +4819,34 @@
       <c r="I61" t="s">
         <v>308</v>
       </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
       <c r="K61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" t="b">
+        <v>0</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s">
         <v>289</v>
@@ -3690,18 +4862,36 @@
         <v>292</v>
       </c>
       <c r="I62" t="s">
-        <v>368</v>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+      <c r="S62" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+      <c r="U62" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" t="b">
+        <v>0</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s">
         <v>288</v>
@@ -3719,16 +4909,34 @@
       <c r="I63" t="s">
         <v>308</v>
       </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
       <c r="K63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="b">
+        <v>0</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
         <v>289</v>
@@ -3746,16 +4954,34 @@
       <c r="I64" t="s">
         <v>308</v>
       </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
       <c r="K64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -3773,14 +4999,32 @@
       <c r="I65" t="s">
         <v>308</v>
       </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
       <c r="K65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
         <v>293</v>
       </c>
@@ -3800,16 +5044,34 @@
       <c r="I66" t="s">
         <v>309</v>
       </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
       <c r="K66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66" t="b">
+        <v>0</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" t="b">
+        <v>0</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s">
         <v>323</v>
@@ -3827,16 +5089,34 @@
       <c r="I67" t="s">
         <v>308</v>
       </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
       <c r="K67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67" t="b">
+        <v>0</v>
+      </c>
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67" t="b">
+        <v>0</v>
+      </c>
+      <c r="V67" t="b">
+        <v>0</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
         <v>323</v>
@@ -3854,16 +5134,34 @@
       <c r="I68" t="s">
         <v>308</v>
       </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
       <c r="K68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68" t="b">
+        <v>0</v>
+      </c>
+      <c r="T68" t="b">
+        <v>0</v>
+      </c>
+      <c r="U68" t="b">
+        <v>0</v>
+      </c>
+      <c r="V68" t="b">
+        <v>0</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
         <v>323</v>
@@ -3881,16 +5179,34 @@
       <c r="I69" t="s">
         <v>308</v>
       </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
       <c r="K69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69" t="b">
+        <v>0</v>
+      </c>
+      <c r="T69" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69" t="b">
+        <v>0</v>
+      </c>
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s">
         <v>323</v>
@@ -3902,10 +5218,10 @@
         <v>313</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H70" t="s">
         <v>291</v>
@@ -3913,16 +5229,34 @@
       <c r="I70" t="s">
         <v>309</v>
       </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
       <c r="K70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s">
         <v>287</v>
@@ -3940,16 +5274,34 @@
       <c r="I71" t="s">
         <v>309</v>
       </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
       <c r="K71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" t="b">
+        <v>0</v>
+      </c>
+      <c r="U71" t="b">
+        <v>0</v>
+      </c>
+      <c r="V71" t="b">
+        <v>0</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s">
         <v>289</v>
@@ -3961,36 +5313,54 @@
         <v>311</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H72" t="s">
         <v>292</v>
       </c>
       <c r="I72" t="s">
-        <v>368</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="b">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
       </c>
       <c r="N72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="b">
         <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>1</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" t="b">
+        <v>0</v>
+      </c>
+      <c r="U72" t="b">
+        <v>0</v>
+      </c>
+      <c r="V72" t="b">
+        <v>0</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s">
         <v>289</v>
@@ -4006,18 +5376,36 @@
         <v>292</v>
       </c>
       <c r="I73" t="s">
-        <v>368</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>365</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>1</v>
+      </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+      <c r="S73" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" t="b">
+        <v>0</v>
+      </c>
+      <c r="U73" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" t="b">
+        <v>0</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s">
         <v>289</v>
@@ -4033,18 +5421,36 @@
         <v>292</v>
       </c>
       <c r="I74" t="s">
-        <v>368</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>365</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>1</v>
+      </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" t="b">
+        <v>0</v>
+      </c>
+      <c r="T74" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74" t="b">
+        <v>0</v>
+      </c>
+      <c r="V74" t="b">
+        <v>0</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s">
         <v>289</v>
@@ -4056,36 +5462,54 @@
         <v>311</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H75" t="s">
         <v>292</v>
       </c>
       <c r="I75" t="s">
-        <v>368</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" t="b">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
       </c>
       <c r="N75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="b">
         <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" t="b">
+        <v>0</v>
+      </c>
+      <c r="T75" t="b">
+        <v>0</v>
+      </c>
+      <c r="U75" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" t="b">
+        <v>0</v>
+      </c>
+      <c r="W75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s">
         <v>289</v>
@@ -4101,18 +5525,36 @@
         <v>292</v>
       </c>
       <c r="I76" t="s">
-        <v>369</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>366</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" t="b">
+        <v>0</v>
+      </c>
+      <c r="U76" t="b">
+        <v>0</v>
+      </c>
+      <c r="V76" t="b">
+        <v>0</v>
+      </c>
+      <c r="W76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s">
         <v>289</v>
@@ -4128,21 +5570,39 @@
         <v>292</v>
       </c>
       <c r="I77" t="s">
-        <v>369</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>366</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" t="b">
+        <v>0</v>
+      </c>
+      <c r="T77" t="b">
+        <v>0</v>
+      </c>
+      <c r="U77" t="b">
+        <v>0</v>
+      </c>
+      <c r="V77" t="b">
+        <v>0</v>
+      </c>
+      <c r="W77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C78" t="s">
         <v>314</v>
@@ -4151,7 +5611,7 @@
         <v>313</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H78" t="s">
         <v>290</v>
@@ -4159,28 +5619,46 @@
       <c r="I78" t="s">
         <v>308</v>
       </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" t="b">
-        <v>1</v>
+      <c r="K78" t="b">
+        <v>0</v>
       </c>
       <c r="M78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" t="b">
+        <v>0</v>
+      </c>
+      <c r="U78" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" t="b">
+        <v>0</v>
+      </c>
+      <c r="W78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s">
         <v>289</v>
@@ -4192,7 +5670,7 @@
         <v>311</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H79" t="s">
         <v>290</v>
@@ -4200,26 +5678,44 @@
       <c r="I79" t="s">
         <v>308</v>
       </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" t="b">
-        <v>1</v>
+      <c r="K79" t="b">
+        <v>0</v>
       </c>
       <c r="M79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <v>0</v>
+      </c>
+      <c r="T79" t="b">
+        <v>0</v>
+      </c>
+      <c r="U79" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" t="b">
+        <v>0</v>
+      </c>
+      <c r="W79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
         <v>285</v>
       </c>
@@ -4233,7 +5729,7 @@
         <v>313</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H80" t="s">
         <v>290</v>
@@ -4241,28 +5737,46 @@
       <c r="I80" t="s">
         <v>308</v>
       </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" t="b">
-        <v>1</v>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
       <c r="M80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <v>0</v>
+      </c>
+      <c r="T80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U80" t="b">
+        <v>0</v>
+      </c>
+      <c r="V80" t="b">
+        <v>0</v>
+      </c>
+      <c r="W80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B81" t="s">
         <v>289</v>
@@ -4278,13 +5792,10 @@
         <v>292</v>
       </c>
       <c r="I81" t="s">
-        <v>369</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" t="b">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
       </c>
       <c r="M81" t="b">
         <v>1</v>
@@ -4298,10 +5809,31 @@
       <c r="P81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81" t="b">
+        <v>1</v>
+      </c>
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" t="b">
+        <v>0</v>
+      </c>
+      <c r="U81" t="b">
+        <v>0</v>
+      </c>
+      <c r="V81" t="b">
+        <v>0</v>
+      </c>
+      <c r="W81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B82" t="s">
         <v>289</v>
@@ -4313,7 +5845,7 @@
         <v>311</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H82" t="s">
         <v>290</v>
@@ -4321,16 +5853,34 @@
       <c r="I82" t="s">
         <v>308</v>
       </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82" t="b">
+        <v>0</v>
+      </c>
+      <c r="S82" t="b">
+        <v>0</v>
+      </c>
+      <c r="T82" t="b">
+        <v>0</v>
+      </c>
+      <c r="U82" t="b">
+        <v>0</v>
+      </c>
+      <c r="V82" t="b">
+        <v>0</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
@@ -4344,16 +5894,34 @@
       <c r="H83" t="s">
         <v>292</v>
       </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+      <c r="S83" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" t="b">
+        <v>0</v>
+      </c>
+      <c r="U83" t="b">
+        <v>0</v>
+      </c>
+      <c r="V83" t="b">
+        <v>0</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B84" t="s">
         <v>289</v>
@@ -4367,16 +5935,34 @@
       <c r="H84" t="s">
         <v>292</v>
       </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" t="b">
+        <v>0</v>
+      </c>
+      <c r="S84" t="b">
+        <v>0</v>
+      </c>
+      <c r="T84" t="b">
+        <v>0</v>
+      </c>
+      <c r="U84" t="b">
+        <v>0</v>
+      </c>
+      <c r="V84" t="b">
+        <v>0</v>
+      </c>
+      <c r="W84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B85" t="s">
         <v>289</v>
@@ -4390,16 +5976,34 @@
       <c r="H85" t="s">
         <v>292</v>
       </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" t="b">
+        <v>0</v>
+      </c>
+      <c r="S85" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" t="b">
+        <v>0</v>
+      </c>
+      <c r="U85" t="b">
+        <v>0</v>
+      </c>
+      <c r="V85" t="b">
+        <v>0</v>
+      </c>
+      <c r="W85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B86" t="s">
         <v>289</v>
@@ -4413,16 +6017,34 @@
       <c r="H86" t="s">
         <v>292</v>
       </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="R86" t="b">
+        <v>0</v>
+      </c>
+      <c r="S86" t="b">
+        <v>0</v>
+      </c>
+      <c r="T86" t="b">
+        <v>0</v>
+      </c>
+      <c r="U86" t="b">
+        <v>0</v>
+      </c>
+      <c r="V86" t="b">
+        <v>0</v>
+      </c>
+      <c r="W86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s">
         <v>289</v>
@@ -4436,16 +6058,34 @@
       <c r="H87" t="s">
         <v>292</v>
       </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" t="b">
+        <v>0</v>
+      </c>
+      <c r="S87" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" t="b">
+        <v>0</v>
+      </c>
+      <c r="U87" t="b">
+        <v>0</v>
+      </c>
+      <c r="V87" t="b">
+        <v>0</v>
+      </c>
+      <c r="W87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B88" t="s">
         <v>289</v>
@@ -4459,16 +6099,34 @@
       <c r="H88" t="s">
         <v>292</v>
       </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="R88" t="b">
+        <v>0</v>
+      </c>
+      <c r="S88" t="b">
+        <v>0</v>
+      </c>
+      <c r="T88" t="b">
+        <v>0</v>
+      </c>
+      <c r="U88" t="b">
+        <v>0</v>
+      </c>
+      <c r="V88" t="b">
+        <v>0</v>
+      </c>
+      <c r="W88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B89" t="s">
         <v>289</v>
@@ -4482,16 +6140,34 @@
       <c r="H89" t="s">
         <v>292</v>
       </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" t="b">
+        <v>0</v>
+      </c>
+      <c r="S89" t="b">
+        <v>0</v>
+      </c>
+      <c r="T89" t="b">
+        <v>0</v>
+      </c>
+      <c r="U89" t="b">
+        <v>0</v>
+      </c>
+      <c r="V89" t="b">
+        <v>0</v>
+      </c>
+      <c r="W89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s">
         <v>289</v>
@@ -4505,16 +6181,34 @@
       <c r="H90" t="s">
         <v>292</v>
       </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="R90" t="b">
+        <v>0</v>
+      </c>
+      <c r="S90" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" t="b">
+        <v>0</v>
+      </c>
+      <c r="U90" t="b">
+        <v>0</v>
+      </c>
+      <c r="V90" t="b">
+        <v>0</v>
+      </c>
+      <c r="W90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B91" t="s">
         <v>289</v>
@@ -4528,16 +6222,34 @@
       <c r="H91" t="s">
         <v>292</v>
       </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" t="b">
+        <v>0</v>
+      </c>
+      <c r="S91" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" t="b">
+        <v>0</v>
+      </c>
+      <c r="U91" t="b">
+        <v>0</v>
+      </c>
+      <c r="V91" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s">
         <v>289</v>
@@ -4551,16 +6263,34 @@
       <c r="H92" t="s">
         <v>292</v>
       </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="R92" t="b">
+        <v>0</v>
+      </c>
+      <c r="S92" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" t="b">
+        <v>0</v>
+      </c>
+      <c r="U92" t="b">
+        <v>0</v>
+      </c>
+      <c r="V92" t="b">
+        <v>0</v>
+      </c>
+      <c r="W92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B93" t="s">
         <v>289</v>
@@ -4574,16 +6304,34 @@
       <c r="H93" t="s">
         <v>292</v>
       </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R93" t="b">
+        <v>0</v>
+      </c>
+      <c r="S93" t="b">
+        <v>0</v>
+      </c>
+      <c r="T93" t="b">
+        <v>0</v>
+      </c>
+      <c r="U93" t="b">
+        <v>0</v>
+      </c>
+      <c r="V93" t="b">
+        <v>0</v>
+      </c>
+      <c r="W93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B94" t="s">
         <v>289</v>
@@ -4592,21 +6340,39 @@
         <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H94" t="s">
         <v>290</v>
       </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="R94" t="b">
+        <v>0</v>
+      </c>
+      <c r="S94" t="b">
+        <v>0</v>
+      </c>
+      <c r="T94" t="b">
+        <v>0</v>
+      </c>
+      <c r="U94" t="b">
+        <v>0</v>
+      </c>
+      <c r="V94" t="b">
+        <v>0</v>
+      </c>
+      <c r="W94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B95" t="s">
         <v>288</v>
@@ -4615,21 +6381,39 @@
         <v>321</v>
       </c>
       <c r="D95" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="R95" t="b">
+        <v>0</v>
+      </c>
+      <c r="S95" t="b">
+        <v>0</v>
+      </c>
+      <c r="T95" t="b">
+        <v>0</v>
+      </c>
+      <c r="U95" t="b">
+        <v>0</v>
+      </c>
+      <c r="V95" t="b">
+        <v>0</v>
+      </c>
+      <c r="W95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s">
         <v>287</v>
@@ -4647,13 +6431,31 @@
       <c r="I96" t="s">
         <v>309</v>
       </c>
-      <c r="J96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96" t="b">
+        <v>0</v>
+      </c>
+      <c r="S96" t="b">
+        <v>0</v>
+      </c>
+      <c r="T96" t="b">
+        <v>0</v>
+      </c>
+      <c r="U96" t="b">
+        <v>0</v>
+      </c>
+      <c r="V96" t="b">
+        <v>0</v>
+      </c>
+      <c r="W96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B97" t="s">
         <v>287</v>
@@ -4671,13 +6473,31 @@
       <c r="I97" t="s">
         <v>308</v>
       </c>
-      <c r="J97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="R97" t="b">
+        <v>0</v>
+      </c>
+      <c r="S97" t="b">
+        <v>0</v>
+      </c>
+      <c r="T97" t="b">
+        <v>0</v>
+      </c>
+      <c r="U97" t="b">
+        <v>0</v>
+      </c>
+      <c r="V97" t="b">
+        <v>0</v>
+      </c>
+      <c r="W97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s">
         <v>289</v>
@@ -4692,16 +6512,31 @@
       <c r="H98" t="s">
         <v>292</v>
       </c>
-      <c r="J98" t="b">
-        <v>1</v>
-      </c>
-      <c r="U98" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="R98" t="b">
+        <v>0</v>
+      </c>
+      <c r="S98" t="b">
+        <v>0</v>
+      </c>
+      <c r="T98" t="b">
+        <v>0</v>
+      </c>
+      <c r="U98" t="b">
+        <v>0</v>
+      </c>
+      <c r="V98" t="b">
+        <v>0</v>
+      </c>
+      <c r="W98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B99" t="s">
         <v>289</v>
@@ -4716,16 +6551,31 @@
       <c r="H99" t="s">
         <v>292</v>
       </c>
-      <c r="J99" t="b">
-        <v>1</v>
-      </c>
-      <c r="U99" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="R99" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99" t="b">
+        <v>0</v>
+      </c>
+      <c r="T99" t="b">
+        <v>0</v>
+      </c>
+      <c r="U99" t="b">
+        <v>0</v>
+      </c>
+      <c r="V99" t="b">
+        <v>0</v>
+      </c>
+      <c r="W99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B100" t="s">
         <v>289</v>
@@ -4740,19 +6590,34 @@
       <c r="H100" t="s">
         <v>292</v>
       </c>
-      <c r="J100" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" t="b">
-        <v>1</v>
-      </c>
-      <c r="U100" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>1</v>
+      </c>
+      <c r="R100" t="b">
+        <v>0</v>
+      </c>
+      <c r="S100" t="b">
+        <v>0</v>
+      </c>
+      <c r="T100" t="b">
+        <v>0</v>
+      </c>
+      <c r="U100" t="b">
+        <v>0</v>
+      </c>
+      <c r="V100" t="b">
+        <v>0</v>
+      </c>
+      <c r="W100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B101" t="s">
         <v>289</v>
@@ -4767,16 +6632,34 @@
       <c r="H101" t="s">
         <v>290</v>
       </c>
-      <c r="J101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+      <c r="R101" t="b">
+        <v>0</v>
+      </c>
+      <c r="S101" t="b">
+        <v>0</v>
+      </c>
+      <c r="T101" t="b">
+        <v>0</v>
+      </c>
+      <c r="U101" t="b">
+        <v>0</v>
+      </c>
+      <c r="V101" t="b">
+        <v>0</v>
+      </c>
+      <c r="W101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B102" t="s">
         <v>287</v>
@@ -4791,16 +6674,34 @@
       <c r="H102" t="s">
         <v>290</v>
       </c>
-      <c r="J102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
+        <v>1</v>
+      </c>
+      <c r="R102" t="b">
+        <v>0</v>
+      </c>
+      <c r="S102" t="b">
+        <v>0</v>
+      </c>
+      <c r="T102" t="b">
+        <v>0</v>
+      </c>
+      <c r="U102" t="b">
+        <v>0</v>
+      </c>
+      <c r="V102" t="b">
+        <v>0</v>
+      </c>
+      <c r="W102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B103" t="s">
         <v>289</v>
@@ -4815,16 +6716,34 @@
       <c r="H103" t="s">
         <v>290</v>
       </c>
-      <c r="J103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="b">
+        <v>1</v>
+      </c>
+      <c r="R103" t="b">
+        <v>0</v>
+      </c>
+      <c r="S103" t="b">
+        <v>0</v>
+      </c>
+      <c r="T103" t="b">
+        <v>0</v>
+      </c>
+      <c r="U103" t="b">
+        <v>0</v>
+      </c>
+      <c r="V103" t="b">
+        <v>0</v>
+      </c>
+      <c r="W103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B104" t="s">
         <v>287</v>
@@ -4839,16 +6758,34 @@
       <c r="H104" t="s">
         <v>290</v>
       </c>
-      <c r="J104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
+        <v>1</v>
+      </c>
+      <c r="R104" t="b">
+        <v>0</v>
+      </c>
+      <c r="S104" t="b">
+        <v>0</v>
+      </c>
+      <c r="T104" t="b">
+        <v>0</v>
+      </c>
+      <c r="U104" t="b">
+        <v>0</v>
+      </c>
+      <c r="V104" t="b">
+        <v>0</v>
+      </c>
+      <c r="W104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B105" t="s">
         <v>287</v>
@@ -4863,16 +6800,34 @@
       <c r="H105" t="s">
         <v>292</v>
       </c>
-      <c r="J105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
+        <v>1</v>
+      </c>
+      <c r="R105" t="b">
+        <v>0</v>
+      </c>
+      <c r="S105" t="b">
+        <v>0</v>
+      </c>
+      <c r="T105" t="b">
+        <v>0</v>
+      </c>
+      <c r="U105" t="b">
+        <v>0</v>
+      </c>
+      <c r="V105" t="b">
+        <v>0</v>
+      </c>
+      <c r="W105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B106" t="s">
         <v>289</v>
@@ -4887,16 +6842,34 @@
       <c r="H106" t="s">
         <v>292</v>
       </c>
-      <c r="J106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="b">
+        <v>1</v>
+      </c>
+      <c r="R106" t="b">
+        <v>0</v>
+      </c>
+      <c r="S106" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" t="b">
+        <v>0</v>
+      </c>
+      <c r="W106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s">
         <v>289</v>
@@ -4911,16 +6884,34 @@
       <c r="H107" t="s">
         <v>292</v>
       </c>
-      <c r="J107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="b">
+        <v>1</v>
+      </c>
+      <c r="R107" t="b">
+        <v>0</v>
+      </c>
+      <c r="S107" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" t="b">
+        <v>0</v>
+      </c>
+      <c r="U107" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" t="b">
+        <v>0</v>
+      </c>
+      <c r="W107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B108" t="s">
         <v>289</v>
@@ -4935,16 +6926,34 @@
       <c r="H108" t="s">
         <v>292</v>
       </c>
-      <c r="J108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
+        <v>1</v>
+      </c>
+      <c r="R108" t="b">
+        <v>0</v>
+      </c>
+      <c r="S108" t="b">
+        <v>0</v>
+      </c>
+      <c r="T108" t="b">
+        <v>0</v>
+      </c>
+      <c r="U108" t="b">
+        <v>0</v>
+      </c>
+      <c r="V108" t="b">
+        <v>0</v>
+      </c>
+      <c r="W108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B109" t="s">
         <v>320</v>
@@ -4959,19 +6968,34 @@
       <c r="H109" t="s">
         <v>292</v>
       </c>
-      <c r="J109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="b">
-        <v>1</v>
-      </c>
-      <c r="U109" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="b">
+        <v>1</v>
+      </c>
+      <c r="R109" t="b">
+        <v>0</v>
+      </c>
+      <c r="S109" t="b">
+        <v>0</v>
+      </c>
+      <c r="T109" t="b">
+        <v>0</v>
+      </c>
+      <c r="U109" t="b">
+        <v>0</v>
+      </c>
+      <c r="V109" t="b">
+        <v>0</v>
+      </c>
+      <c r="W109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s">
         <v>287</v>
@@ -4985,17 +7009,35 @@
       <c r="H110" t="s">
         <v>291</v>
       </c>
-      <c r="J110" t="b">
-        <v>0</v>
-      </c>
       <c r="K110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="M110" t="b">
+        <v>1</v>
+      </c>
+      <c r="R110" t="b">
+        <v>0</v>
+      </c>
+      <c r="S110" t="b">
+        <v>0</v>
+      </c>
+      <c r="T110" t="b">
+        <v>0</v>
+      </c>
+      <c r="U110" t="b">
+        <v>0</v>
+      </c>
+      <c r="V110" t="b">
+        <v>0</v>
+      </c>
+      <c r="W110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
         <v>298</v>
       </c>
@@ -5011,19 +7053,37 @@
       <c r="H111" t="s">
         <v>292</v>
       </c>
-      <c r="J111" t="b">
-        <v>0</v>
-      </c>
       <c r="K111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="M111" t="b">
+        <v>1</v>
+      </c>
+      <c r="R111" t="b">
+        <v>0</v>
+      </c>
+      <c r="S111" t="b">
+        <v>0</v>
+      </c>
+      <c r="T111" t="b">
+        <v>0</v>
+      </c>
+      <c r="U111" t="b">
+        <v>0</v>
+      </c>
+      <c r="V111" t="b">
+        <v>0</v>
+      </c>
+      <c r="W111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s">
         <v>288</v>
@@ -5034,22 +7094,43 @@
       <c r="D112" t="s">
         <v>324</v>
       </c>
+      <c r="E112" t="s">
+        <v>472</v>
+      </c>
       <c r="H112" t="s">
         <v>290</v>
       </c>
-      <c r="J112" t="b">
-        <v>0</v>
-      </c>
       <c r="K112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="M112" t="b">
+        <v>1</v>
+      </c>
+      <c r="R112" t="b">
+        <v>0</v>
+      </c>
+      <c r="S112" t="b">
+        <v>0</v>
+      </c>
+      <c r="T112" t="b">
+        <v>0</v>
+      </c>
+      <c r="U112" t="b">
+        <v>0</v>
+      </c>
+      <c r="V112" t="b">
+        <v>0</v>
+      </c>
+      <c r="W112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
         <v>288</v>
@@ -5063,17 +7144,35 @@
       <c r="H113" t="s">
         <v>290</v>
       </c>
-      <c r="J113" t="b">
-        <v>0</v>
-      </c>
       <c r="K113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="M113" t="b">
+        <v>1</v>
+      </c>
+      <c r="R113" t="b">
+        <v>0</v>
+      </c>
+      <c r="S113" t="b">
+        <v>0</v>
+      </c>
+      <c r="T113" t="b">
+        <v>0</v>
+      </c>
+      <c r="U113" t="b">
+        <v>0</v>
+      </c>
+      <c r="V113" t="b">
+        <v>0</v>
+      </c>
+      <c r="W113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="s">
         <v>299</v>
       </c>
@@ -5089,17 +7188,35 @@
       <c r="H114" t="s">
         <v>291</v>
       </c>
-      <c r="J114" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" t="b">
-        <v>1</v>
+      <c r="K114" t="b">
+        <v>0</v>
       </c>
       <c r="M114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+      <c r="R114" t="b">
+        <v>0</v>
+      </c>
+      <c r="S114" t="b">
+        <v>0</v>
+      </c>
+      <c r="T114" t="b">
+        <v>0</v>
+      </c>
+      <c r="U114" t="b">
+        <v>0</v>
+      </c>
+      <c r="V114" t="b">
+        <v>0</v>
+      </c>
+      <c r="W114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="s">
         <v>300</v>
       </c>
@@ -5115,19 +7232,37 @@
       <c r="H115" t="s">
         <v>290</v>
       </c>
-      <c r="J115" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" t="b">
-        <v>1</v>
+      <c r="K115" t="b">
+        <v>0</v>
       </c>
       <c r="M115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="R115" t="b">
+        <v>0</v>
+      </c>
+      <c r="S115" t="b">
+        <v>0</v>
+      </c>
+      <c r="T115" t="b">
+        <v>0</v>
+      </c>
+      <c r="U115" t="b">
+        <v>0</v>
+      </c>
+      <c r="V115" t="b">
+        <v>0</v>
+      </c>
+      <c r="W115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B116" t="s">
         <v>288</v>
@@ -5138,22 +7273,46 @@
       <c r="D116" t="s">
         <v>324</v>
       </c>
+      <c r="E116" t="s">
+        <v>470</v>
+      </c>
+      <c r="F116" t="s">
+        <v>471</v>
+      </c>
       <c r="H116" t="s">
         <v>290</v>
       </c>
-      <c r="J116" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" t="b">
-        <v>1</v>
+      <c r="K116" t="b">
+        <v>0</v>
       </c>
       <c r="M116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
+      <c r="R116" t="b">
+        <v>0</v>
+      </c>
+      <c r="S116" t="b">
+        <v>0</v>
+      </c>
+      <c r="T116" t="b">
+        <v>0</v>
+      </c>
+      <c r="U116" t="b">
+        <v>0</v>
+      </c>
+      <c r="V116" t="b">
+        <v>0</v>
+      </c>
+      <c r="W116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B117" t="s">
         <v>289</v>
@@ -5167,19 +7326,37 @@
       <c r="H117" t="s">
         <v>290</v>
       </c>
-      <c r="J117" t="b">
-        <v>0</v>
-      </c>
       <c r="K117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="M117" t="b">
+        <v>1</v>
+      </c>
+      <c r="R117" t="b">
+        <v>0</v>
+      </c>
+      <c r="S117" t="b">
+        <v>0</v>
+      </c>
+      <c r="T117" t="b">
+        <v>0</v>
+      </c>
+      <c r="U117" t="b">
+        <v>0</v>
+      </c>
+      <c r="V117" t="b">
+        <v>0</v>
+      </c>
+      <c r="W117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B118" t="s">
         <v>288</v>
@@ -5193,17 +7370,35 @@
       <c r="H118" t="s">
         <v>290</v>
       </c>
-      <c r="J118" t="b">
-        <v>0</v>
-      </c>
       <c r="K118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="M118" t="b">
+        <v>1</v>
+      </c>
+      <c r="R118" t="b">
+        <v>0</v>
+      </c>
+      <c r="S118" t="b">
+        <v>0</v>
+      </c>
+      <c r="T118" t="b">
+        <v>0</v>
+      </c>
+      <c r="U118" t="b">
+        <v>0</v>
+      </c>
+      <c r="V118" t="b">
+        <v>0</v>
+      </c>
+      <c r="W118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" t="s">
         <v>301</v>
       </c>
@@ -5219,14 +7414,11 @@
       <c r="H119" t="s">
         <v>291</v>
       </c>
-      <c r="J119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" t="b">
-        <v>1</v>
+      <c r="K119" t="b">
+        <v>0</v>
       </c>
       <c r="M119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" t="b">
         <v>0</v>
@@ -5237,10 +7429,31 @@
       <c r="P119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119" t="b">
+        <v>0</v>
+      </c>
+      <c r="R119" t="b">
+        <v>0</v>
+      </c>
+      <c r="S119" t="b">
+        <v>0</v>
+      </c>
+      <c r="T119" t="b">
+        <v>0</v>
+      </c>
+      <c r="U119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V119" t="b">
+        <v>0</v>
+      </c>
+      <c r="W119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s">
         <v>289</v>
@@ -5254,14 +7467,11 @@
       <c r="H120" t="s">
         <v>292</v>
       </c>
-      <c r="J120" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" t="b">
-        <v>1</v>
+      <c r="K120" t="b">
+        <v>0</v>
       </c>
       <c r="M120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="b">
         <v>0</v>
@@ -5272,10 +7482,31 @@
       <c r="P120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120" t="b">
+        <v>0</v>
+      </c>
+      <c r="R120" t="b">
+        <v>0</v>
+      </c>
+      <c r="S120" t="b">
+        <v>0</v>
+      </c>
+      <c r="T120" t="b">
+        <v>0</v>
+      </c>
+      <c r="U120" t="b">
+        <v>0</v>
+      </c>
+      <c r="V120" t="b">
+        <v>0</v>
+      </c>
+      <c r="W120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B121" t="s">
         <v>287</v>
@@ -5289,14 +7520,11 @@
       <c r="H121" t="s">
         <v>292</v>
       </c>
-      <c r="J121" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" t="b">
-        <v>1</v>
+      <c r="K121" t="b">
+        <v>0</v>
       </c>
       <c r="M121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" t="b">
         <v>0</v>
@@ -5307,28 +7535,49 @@
       <c r="P121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121" t="b">
+        <v>0</v>
+      </c>
+      <c r="R121" t="b">
+        <v>0</v>
+      </c>
+      <c r="S121" t="b">
+        <v>0</v>
+      </c>
+      <c r="T121" t="b">
+        <v>0</v>
+      </c>
+      <c r="U121" t="b">
+        <v>0</v>
+      </c>
+      <c r="V121" t="b">
+        <v>0</v>
+      </c>
+      <c r="W121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C122" t="s">
         <v>322</v>
       </c>
       <c r="D122" t="s">
-        <v>326</v>
-      </c>
-      <c r="J122" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" t="b">
-        <v>1</v>
+        <v>467</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
       </c>
       <c r="M122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -5339,10 +7588,31 @@
       <c r="P122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122" t="b">
+        <v>0</v>
+      </c>
+      <c r="R122" t="b">
+        <v>0</v>
+      </c>
+      <c r="S122" t="b">
+        <v>0</v>
+      </c>
+      <c r="T122" t="b">
+        <v>0</v>
+      </c>
+      <c r="U122" t="b">
+        <v>0</v>
+      </c>
+      <c r="V122" t="b">
+        <v>0</v>
+      </c>
+      <c r="W122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
         <v>289</v>
@@ -5353,16 +7623,34 @@
       <c r="D123" t="s">
         <v>311</v>
       </c>
-      <c r="J123" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>1</v>
+      </c>
+      <c r="R123" t="b">
+        <v>0</v>
+      </c>
+      <c r="S123" t="b">
+        <v>0</v>
+      </c>
+      <c r="T123" t="b">
+        <v>0</v>
+      </c>
+      <c r="U123" t="b">
+        <v>0</v>
+      </c>
+      <c r="V123" t="b">
+        <v>0</v>
+      </c>
+      <c r="W123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
         <v>289</v>
@@ -5373,16 +7661,34 @@
       <c r="D124" t="s">
         <v>311</v>
       </c>
-      <c r="J124" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>1</v>
+      </c>
+      <c r="R124" t="b">
+        <v>0</v>
+      </c>
+      <c r="S124" t="b">
+        <v>0</v>
+      </c>
+      <c r="T124" t="b">
+        <v>0</v>
+      </c>
+      <c r="U124" t="b">
+        <v>0</v>
+      </c>
+      <c r="V124" t="b">
+        <v>0</v>
+      </c>
+      <c r="W124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
         <v>287</v>
@@ -5393,14 +7699,32 @@
       <c r="D125" t="s">
         <v>313</v>
       </c>
-      <c r="J125" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>1</v>
+      </c>
+      <c r="R125" t="b">
+        <v>0</v>
+      </c>
+      <c r="S125" t="b">
+        <v>0</v>
+      </c>
+      <c r="T125" t="b">
+        <v>0</v>
+      </c>
+      <c r="U125" t="b">
+        <v>0</v>
+      </c>
+      <c r="V125" t="b">
+        <v>0</v>
+      </c>
+      <c r="W125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" t="s">
         <v>296</v>
       </c>
@@ -5413,23 +7737,20 @@
       <c r="D126" t="s">
         <v>311</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>348</v>
+      <c r="E126" t="s">
+        <v>489</v>
       </c>
       <c r="H126" t="s">
         <v>292</v>
       </c>
-      <c r="J126" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" t="b">
-        <v>1</v>
+      <c r="K126" t="b">
+        <v>0</v>
       </c>
       <c r="M126" t="b">
         <v>1</v>
       </c>
       <c r="N126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="b">
         <v>0</v>
@@ -5437,10 +7758,31 @@
       <c r="P126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126" t="b">
+        <v>0</v>
+      </c>
+      <c r="R126" t="b">
+        <v>0</v>
+      </c>
+      <c r="S126" t="b">
+        <v>0</v>
+      </c>
+      <c r="T126" t="b">
+        <v>0</v>
+      </c>
+      <c r="U126" t="b">
+        <v>0</v>
+      </c>
+      <c r="V126" t="b">
+        <v>0</v>
+      </c>
+      <c r="W126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
         <v>287</v>
@@ -5451,26 +7793,20 @@
       <c r="D127" t="s">
         <v>313</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="H127" t="s">
-        <v>290</v>
-      </c>
-      <c r="I127" t="s">
-        <v>308</v>
-      </c>
-      <c r="J127" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" t="b">
-        <v>1</v>
+      <c r="E127" t="s">
+        <v>490</v>
+      </c>
+      <c r="F127" t="s">
+        <v>491</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
       </c>
       <c r="M127" t="b">
         <v>1</v>
       </c>
       <c r="N127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="b">
         <v>0</v>
@@ -5478,10 +7814,31 @@
       <c r="P127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127" t="b">
+        <v>0</v>
+      </c>
+      <c r="R127" t="b">
+        <v>0</v>
+      </c>
+      <c r="S127" t="b">
+        <v>0</v>
+      </c>
+      <c r="T127" t="b">
+        <v>0</v>
+      </c>
+      <c r="U127" t="b">
+        <v>0</v>
+      </c>
+      <c r="V127" t="b">
+        <v>0</v>
+      </c>
+      <c r="W127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>287</v>
@@ -5492,8 +7849,11 @@
       <c r="D128" t="s">
         <v>313</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>350</v>
+      <c r="E128" t="s">
+        <v>347</v>
+      </c>
+      <c r="F128" t="s">
+        <v>491</v>
       </c>
       <c r="H128" t="s">
         <v>290</v>
@@ -5501,17 +7861,14 @@
       <c r="I128" t="s">
         <v>308</v>
       </c>
-      <c r="J128" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" t="b">
-        <v>1</v>
+      <c r="K128" t="b">
+        <v>0</v>
       </c>
       <c r="M128" t="b">
         <v>1</v>
       </c>
       <c r="N128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" t="b">
         <v>0</v>
@@ -5519,10 +7876,31 @@
       <c r="P128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128" t="b">
+        <v>0</v>
+      </c>
+      <c r="R128" t="b">
+        <v>0</v>
+      </c>
+      <c r="S128" t="b">
+        <v>0</v>
+      </c>
+      <c r="T128" t="b">
+        <v>0</v>
+      </c>
+      <c r="U128" t="b">
+        <v>0</v>
+      </c>
+      <c r="V128" t="b">
+        <v>0</v>
+      </c>
+      <c r="W128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="B129" t="s">
         <v>287</v>
@@ -5533,23 +7911,23 @@
       <c r="D129" t="s">
         <v>313</v>
       </c>
+      <c r="E129" t="s">
+        <v>492</v>
+      </c>
       <c r="H129" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I129" t="s">
-        <v>309</v>
-      </c>
-      <c r="J129" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" t="b">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
       </c>
       <c r="M129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="b">
         <v>0</v>
@@ -5557,19 +7935,40 @@
       <c r="P129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129" t="b">
+        <v>0</v>
+      </c>
+      <c r="R129" t="b">
+        <v>0</v>
+      </c>
+      <c r="S129" t="b">
+        <v>0</v>
+      </c>
+      <c r="T129" t="b">
+        <v>0</v>
+      </c>
+      <c r="U129" t="b">
+        <v>0</v>
+      </c>
+      <c r="V129" t="b">
+        <v>0</v>
+      </c>
+      <c r="W129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>287</v>
       </c>
       <c r="C130" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D130" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H130" t="s">
         <v>292</v>
@@ -5577,14 +7976,11 @@
       <c r="I130" t="s">
         <v>309</v>
       </c>
-      <c r="J130" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" t="b">
-        <v>1</v>
+      <c r="K130" t="b">
+        <v>0</v>
       </c>
       <c r="M130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -5595,19 +7991,43 @@
       <c r="P130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130" t="b">
+        <v>0</v>
+      </c>
+      <c r="R130" t="b">
+        <v>0</v>
+      </c>
+      <c r="S130" t="b">
+        <v>0</v>
+      </c>
+      <c r="T130" t="b">
+        <v>0</v>
+      </c>
+      <c r="U130" t="b">
+        <v>0</v>
+      </c>
+      <c r="V130" t="b">
+        <v>0</v>
+      </c>
+      <c r="W130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>287</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D131" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="E131" t="s">
+        <v>483</v>
       </c>
       <c r="H131" t="s">
         <v>292</v>
@@ -5615,14 +8035,11 @@
       <c r="I131" t="s">
         <v>309</v>
       </c>
-      <c r="J131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" t="b">
-        <v>1</v>
+      <c r="K131" t="b">
+        <v>0</v>
       </c>
       <c r="M131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -5633,10 +8050,31 @@
       <c r="P131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131" t="b">
+        <v>0</v>
+      </c>
+      <c r="R131" t="b">
+        <v>0</v>
+      </c>
+      <c r="S131" t="b">
+        <v>0</v>
+      </c>
+      <c r="T131" t="b">
+        <v>0</v>
+      </c>
+      <c r="U131" t="b">
+        <v>0</v>
+      </c>
+      <c r="V131" t="b">
+        <v>0</v>
+      </c>
+      <c r="W131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B132" t="s">
         <v>287</v>
@@ -5647,17 +8085,20 @@
       <c r="D132" t="s">
         <v>313</v>
       </c>
+      <c r="E132" t="s">
+        <v>481</v>
+      </c>
+      <c r="F132" t="s">
+        <v>482</v>
+      </c>
       <c r="H132" t="s">
         <v>292</v>
       </c>
       <c r="I132" t="s">
         <v>309</v>
       </c>
-      <c r="J132" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" t="b">
-        <v>1</v>
+      <c r="K132" t="b">
+        <v>0</v>
       </c>
       <c r="M132" t="b">
         <v>1</v>
@@ -5671,34 +8112,55 @@
       <c r="P132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132" t="b">
+        <v>0</v>
+      </c>
+      <c r="R132" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" t="b">
+        <v>0</v>
+      </c>
+      <c r="T132" t="b">
+        <v>0</v>
+      </c>
+      <c r="U132" t="b">
+        <v>0</v>
+      </c>
+      <c r="V132" t="b">
+        <v>0</v>
+      </c>
+      <c r="W132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="B133" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H133" t="s">
         <v>292</v>
       </c>
-      <c r="J133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" t="b">
-        <v>1</v>
+      <c r="I133" t="s">
+        <v>309</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
       </c>
       <c r="M133" t="b">
         <v>1</v>
       </c>
       <c r="N133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" t="b">
         <v>0</v>
@@ -5706,79 +8168,199 @@
       <c r="P133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133" t="b">
+        <v>0</v>
+      </c>
+      <c r="R133" t="b">
+        <v>0</v>
+      </c>
+      <c r="S133" t="b">
+        <v>0</v>
+      </c>
+      <c r="T133" t="b">
+        <v>0</v>
+      </c>
+      <c r="U133" t="b">
+        <v>0</v>
+      </c>
+      <c r="V133" t="b">
+        <v>0</v>
+      </c>
+      <c r="W133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
         <v>289</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D134" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="E134" t="s">
+        <v>475</v>
       </c>
       <c r="H134" t="s">
         <v>292</v>
       </c>
-      <c r="J134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>1</v>
+      </c>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134" t="b">
+        <v>0</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="b">
+        <v>0</v>
+      </c>
+      <c r="R134" t="b">
+        <v>0</v>
+      </c>
+      <c r="S134" t="b">
+        <v>0</v>
+      </c>
+      <c r="T134" t="b">
+        <v>0</v>
+      </c>
+      <c r="U134" t="b">
+        <v>0</v>
+      </c>
+      <c r="V134" t="b">
+        <v>0</v>
+      </c>
+      <c r="W134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" t="s">
+        <v>311</v>
+      </c>
+      <c r="E135" t="s">
+        <v>474</v>
+      </c>
+      <c r="H135" t="s">
+        <v>292</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>1</v>
+      </c>
+      <c r="N135" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135" t="b">
+        <v>0</v>
+      </c>
+      <c r="P135" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="b">
+        <v>0</v>
+      </c>
+      <c r="R135" t="b">
+        <v>0</v>
+      </c>
+      <c r="S135" t="b">
+        <v>0</v>
+      </c>
+      <c r="T135" t="b">
+        <v>0</v>
+      </c>
+      <c r="U135" t="b">
+        <v>0</v>
+      </c>
+      <c r="V135" t="b">
+        <v>0</v>
+      </c>
+      <c r="W135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
+      <c r="A136" t="s">
+        <v>336</v>
+      </c>
+      <c r="B136" t="s">
         <v>288</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>315</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>324</v>
       </c>
-      <c r="H135" t="s">
+      <c r="E136" t="s">
+        <v>473</v>
+      </c>
+      <c r="H136" t="s">
         <v>290</v>
       </c>
-      <c r="J135" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" t="s">
-        <v>361</v>
-      </c>
-      <c r="B136" t="s">
-        <v>287</v>
-      </c>
-      <c r="C136" t="s">
-        <v>314</v>
-      </c>
-      <c r="D136" t="s">
-        <v>313</v>
-      </c>
-      <c r="H136" t="s">
-        <v>292</v>
-      </c>
-      <c r="J136" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>1</v>
+      </c>
+      <c r="N136" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" t="b">
+        <v>0</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="b">
+        <v>0</v>
+      </c>
+      <c r="R136" t="b">
+        <v>0</v>
+      </c>
+      <c r="S136" t="b">
+        <v>0</v>
+      </c>
+      <c r="T136" t="b">
+        <v>0</v>
+      </c>
+      <c r="U136" t="b">
+        <v>0</v>
+      </c>
+      <c r="V136" t="b">
+        <v>0</v>
+      </c>
+      <c r="W136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B137" t="s">
         <v>287</v>
@@ -5789,113 +8371,329 @@
       <c r="D137" t="s">
         <v>313</v>
       </c>
+      <c r="E137" t="s">
+        <v>476</v>
+      </c>
       <c r="H137" t="s">
         <v>292</v>
       </c>
-      <c r="J137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137" t="b">
+        <v>0</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="b">
+        <v>0</v>
+      </c>
+      <c r="R137" t="b">
+        <v>0</v>
+      </c>
+      <c r="S137" t="b">
+        <v>0</v>
+      </c>
+      <c r="T137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V137" t="b">
+        <v>0</v>
+      </c>
+      <c r="W137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D138" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="E138" t="s">
+        <v>477</v>
       </c>
       <c r="H138" t="s">
         <v>292</v>
       </c>
-      <c r="J138" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138" t="b">
+        <v>0</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="b">
+        <v>0</v>
+      </c>
+      <c r="R138" t="b">
+        <v>0</v>
+      </c>
+      <c r="S138" t="b">
+        <v>0</v>
+      </c>
+      <c r="T138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U138" t="b">
+        <v>0</v>
+      </c>
+      <c r="V138" t="b">
+        <v>0</v>
+      </c>
+      <c r="W138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>311</v>
-      </c>
-      <c r="E139" s="9"/>
+        <v>312</v>
+      </c>
+      <c r="E139" t="s">
+        <v>478</v>
+      </c>
       <c r="H139" t="s">
         <v>292</v>
       </c>
-      <c r="J139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+      <c r="N139" t="b">
+        <v>1</v>
+      </c>
+      <c r="O139" t="b">
+        <v>0</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="b">
+        <v>0</v>
+      </c>
+      <c r="R139" t="b">
+        <v>0</v>
+      </c>
+      <c r="S139" t="b">
+        <v>0</v>
+      </c>
+      <c r="T139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U139" t="b">
+        <v>0</v>
+      </c>
+      <c r="V139" t="b">
+        <v>0</v>
+      </c>
+      <c r="W139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>313</v>
-      </c>
-      <c r="E140" s="9"/>
+        <v>311</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="H140" t="s">
         <v>292</v>
       </c>
-      <c r="J140" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>1</v>
+      </c>
+      <c r="N140" t="b">
+        <v>1</v>
+      </c>
+      <c r="O140" t="b">
+        <v>1</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140" t="b">
+        <v>1</v>
+      </c>
+      <c r="R140" t="b">
+        <v>0</v>
+      </c>
+      <c r="S140" t="b">
+        <v>0</v>
+      </c>
+      <c r="T140" t="b">
+        <v>0</v>
+      </c>
+      <c r="U140" t="b">
+        <v>0</v>
+      </c>
+      <c r="V140" t="b">
+        <v>0</v>
+      </c>
+      <c r="W140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D141" t="s">
-        <v>311</v>
-      </c>
-      <c r="E141" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>480</v>
+      </c>
       <c r="H141" t="s">
         <v>292</v>
       </c>
-      <c r="J141" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" t="b">
-        <v>1</v>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
+        <v>1</v>
+      </c>
+      <c r="N141" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141" t="b">
+        <v>1</v>
+      </c>
+      <c r="P141" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141" t="b">
+        <v>1</v>
+      </c>
+      <c r="R141" t="b">
+        <v>0</v>
+      </c>
+      <c r="S141" t="b">
+        <v>0</v>
+      </c>
+      <c r="T141" t="b">
+        <v>0</v>
+      </c>
+      <c r="U141" t="b">
+        <v>0</v>
+      </c>
+      <c r="V141" t="b">
+        <v>0</v>
+      </c>
+      <c r="W141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142" t="s">
+        <v>318</v>
+      </c>
+      <c r="D142" t="s">
+        <v>311</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="H142" t="s">
+        <v>292</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="b">
+        <v>1</v>
+      </c>
+      <c r="N142" t="b">
+        <v>1</v>
+      </c>
+      <c r="O142" t="b">
+        <v>1</v>
+      </c>
+      <c r="P142" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q142" t="b">
+        <v>1</v>
+      </c>
+      <c r="R142" t="b">
+        <v>0</v>
+      </c>
+      <c r="S142" t="b">
+        <v>0</v>
+      </c>
+      <c r="T142" t="b">
+        <v>0</v>
+      </c>
+      <c r="U142" t="b">
+        <v>0</v>
+      </c>
+      <c r="V142" t="b">
+        <v>0</v>
+      </c>
+      <c r="W142" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W141" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}"/>
+  <autoFilter ref="A1:X142" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DataDictionary05092023.xlsx
+++ b/DataDictionary05092023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/lib/tapestratification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/Developer/lib_python/tapestratification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E00D2-7042-854C-95FB-B687C0091DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD2935C-151B-5B48-8FC0-ABC509114FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="1220" windowWidth="48320" windowHeight="24560" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="505">
   <si>
     <t>loanid</t>
   </si>
@@ -1534,6 +1534,27 @@
   </si>
   <si>
     <t>StratSummSet</t>
+  </si>
+  <si>
+    <t>prop_value_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of valuation </t>
+  </si>
+  <si>
+    <t>APP;BPO;</t>
+  </si>
+  <si>
+    <t>prop_category</t>
+  </si>
+  <si>
+    <t>prop_category2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-level type of property underlying </t>
+  </si>
+  <si>
+    <t>Sub-category specific to prop_category (ex. Prop_category = auto_retail ; prop_category2 = sedan)</t>
   </si>
 </sst>
 </file>
@@ -1590,12 +1611,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1610,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1650,6 +1677,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,13 +1993,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X142"/>
+  <dimension ref="A1:X145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8359,8 +8387,8 @@
       </c>
     </row>
     <row r="137" spans="1:23">
-      <c r="A137" t="s">
-        <v>358</v>
+      <c r="A137" s="17" t="s">
+        <v>498</v>
       </c>
       <c r="B137" t="s">
         <v>287</v>
@@ -8372,51 +8400,15 @@
         <v>313</v>
       </c>
       <c r="E137" t="s">
-        <v>476</v>
-      </c>
-      <c r="H137" t="s">
-        <v>292</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" t="b">
-        <v>1</v>
-      </c>
-      <c r="O137" t="b">
-        <v>0</v>
-      </c>
-      <c r="P137" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="b">
-        <v>0</v>
-      </c>
-      <c r="R137" t="b">
-        <v>0</v>
-      </c>
-      <c r="S137" t="b">
-        <v>0</v>
-      </c>
-      <c r="T137" t="b">
-        <v>0</v>
-      </c>
-      <c r="U137" t="b">
-        <v>0</v>
-      </c>
-      <c r="V137" t="b">
-        <v>0</v>
-      </c>
-      <c r="W137" t="b">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="F137" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:23">
-      <c r="A138" t="s">
-        <v>359</v>
+      <c r="A138" s="17" t="s">
+        <v>501</v>
       </c>
       <c r="B138" t="s">
         <v>287</v>
@@ -8428,119 +8420,41 @@
         <v>313</v>
       </c>
       <c r="E138" t="s">
-        <v>477</v>
-      </c>
-      <c r="H138" t="s">
-        <v>292</v>
-      </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" t="b">
-        <v>0</v>
-      </c>
-      <c r="N138" t="b">
-        <v>1</v>
-      </c>
-      <c r="O138" t="b">
-        <v>0</v>
-      </c>
-      <c r="P138" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="b">
-        <v>0</v>
-      </c>
-      <c r="R138" t="b">
-        <v>0</v>
-      </c>
-      <c r="S138" t="b">
-        <v>0</v>
-      </c>
-      <c r="T138" t="b">
-        <v>0</v>
-      </c>
-      <c r="U138" t="b">
-        <v>0</v>
-      </c>
-      <c r="V138" t="b">
-        <v>0</v>
-      </c>
-      <c r="W138" t="b">
-        <v>0</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:23">
-      <c r="A139" t="s">
-        <v>357</v>
+      <c r="A139" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="B139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D139" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E139" t="s">
-        <v>478</v>
-      </c>
-      <c r="H139" t="s">
-        <v>292</v>
-      </c>
-      <c r="K139" t="b">
-        <v>0</v>
-      </c>
-      <c r="M139" t="b">
-        <v>0</v>
-      </c>
-      <c r="N139" t="b">
-        <v>1</v>
-      </c>
-      <c r="O139" t="b">
-        <v>0</v>
-      </c>
-      <c r="P139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="b">
-        <v>0</v>
-      </c>
-      <c r="R139" t="b">
-        <v>0</v>
-      </c>
-      <c r="S139" t="b">
-        <v>0</v>
-      </c>
-      <c r="T139" t="b">
-        <v>0</v>
-      </c>
-      <c r="U139" t="b">
-        <v>0</v>
-      </c>
-      <c r="V139" t="b">
-        <v>0</v>
-      </c>
-      <c r="W139" t="b">
-        <v>0</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="B140" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D140" t="s">
-        <v>311</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>479</v>
+        <v>313</v>
+      </c>
+      <c r="E140" t="s">
+        <v>476</v>
       </c>
       <c r="H140" t="s">
         <v>292</v>
@@ -8549,19 +8463,19 @@
         <v>0</v>
       </c>
       <c r="M140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" t="b">
         <v>1</v>
       </c>
       <c r="O140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" t="b">
         <v>0</v>
@@ -8584,7 +8498,7 @@
     </row>
     <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B141" t="s">
         <v>287</v>
@@ -8595,8 +8509,8 @@
       <c r="D141" t="s">
         <v>313</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>480</v>
+      <c r="E141" t="s">
+        <v>477</v>
       </c>
       <c r="H141" t="s">
         <v>292</v>
@@ -8605,19 +8519,19 @@
         <v>0</v>
       </c>
       <c r="M141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" t="b">
         <v>1</v>
       </c>
       <c r="O141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141" t="b">
         <v>0</v>
@@ -8640,18 +8554,20 @@
     </row>
     <row r="142" spans="1:23">
       <c r="A142" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D142" t="s">
-        <v>311</v>
-      </c>
-      <c r="E142" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="E142" t="s">
+        <v>478</v>
+      </c>
       <c r="H142" t="s">
         <v>292</v>
       </c>
@@ -8659,19 +8575,19 @@
         <v>0</v>
       </c>
       <c r="M142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" t="b">
         <v>1</v>
       </c>
       <c r="O142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R142" t="b">
         <v>0</v>
@@ -8692,8 +8608,174 @@
         <v>0</v>
       </c>
     </row>
+    <row r="143" spans="1:23">
+      <c r="A143" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s">
+        <v>318</v>
+      </c>
+      <c r="D143" t="s">
+        <v>311</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="H143" t="s">
+        <v>292</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
+        <v>1</v>
+      </c>
+      <c r="N143" t="b">
+        <v>1</v>
+      </c>
+      <c r="O143" t="b">
+        <v>1</v>
+      </c>
+      <c r="P143" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q143" t="b">
+        <v>1</v>
+      </c>
+      <c r="R143" t="b">
+        <v>0</v>
+      </c>
+      <c r="S143" t="b">
+        <v>0</v>
+      </c>
+      <c r="T143" t="b">
+        <v>0</v>
+      </c>
+      <c r="U143" t="b">
+        <v>0</v>
+      </c>
+      <c r="V143" t="b">
+        <v>0</v>
+      </c>
+      <c r="W143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144" t="s">
+        <v>355</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" t="s">
+        <v>314</v>
+      </c>
+      <c r="D144" t="s">
+        <v>313</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H144" t="s">
+        <v>292</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
+        <v>1</v>
+      </c>
+      <c r="N144" t="b">
+        <v>1</v>
+      </c>
+      <c r="O144" t="b">
+        <v>1</v>
+      </c>
+      <c r="P144" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q144" t="b">
+        <v>1</v>
+      </c>
+      <c r="R144" t="b">
+        <v>0</v>
+      </c>
+      <c r="S144" t="b">
+        <v>0</v>
+      </c>
+      <c r="T144" t="b">
+        <v>0</v>
+      </c>
+      <c r="U144" t="b">
+        <v>0</v>
+      </c>
+      <c r="V144" t="b">
+        <v>0</v>
+      </c>
+      <c r="W144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>318</v>
+      </c>
+      <c r="D145" t="s">
+        <v>311</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="H145" t="s">
+        <v>292</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
+        <v>1</v>
+      </c>
+      <c r="N145" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P145" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q145" t="b">
+        <v>1</v>
+      </c>
+      <c r="R145" t="b">
+        <v>0</v>
+      </c>
+      <c r="S145" t="b">
+        <v>0</v>
+      </c>
+      <c r="T145" t="b">
+        <v>0</v>
+      </c>
+      <c r="U145" t="b">
+        <v>0</v>
+      </c>
+      <c r="V145" t="b">
+        <v>0</v>
+      </c>
+      <c r="W145" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X142" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}"/>
+  <autoFilter ref="A1:X145" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DataDictionary05092023.xlsx
+++ b/DataDictionary05092023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/Developer/lib_python/tapestratification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/lib/tapestratification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD2935C-151B-5B48-8FC0-ABC509114FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B246711-7600-B549-941B-D2B2BF0A78F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="47500" windowHeight="23940" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$150</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="510">
   <si>
     <t>loanid</t>
   </si>
@@ -1555,6 +1555,21 @@
   </si>
   <si>
     <t>Sub-category specific to prop_category (ex. Prop_category = auto_retail ; prop_category2 = sedan)</t>
+  </si>
+  <si>
+    <t>svc_sub_name</t>
+  </si>
+  <si>
+    <t>svc_sub_fee_type</t>
+  </si>
+  <si>
+    <t>svc_sub_fee_gross</t>
+  </si>
+  <si>
+    <t>svc_sub_fee2_type</t>
+  </si>
+  <si>
+    <t>svc_sub_fee2_gross</t>
   </si>
 </sst>
 </file>
@@ -1993,13 +2008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X145"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7022,8 +7037,8 @@
       </c>
     </row>
     <row r="110" spans="1:23">
-      <c r="A110" t="s">
-        <v>341</v>
+      <c r="A110" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="B110" t="s">
         <v>287</v>
@@ -7034,239 +7049,91 @@
       <c r="D110" t="s">
         <v>313</v>
       </c>
-      <c r="H110" t="s">
-        <v>291</v>
-      </c>
-      <c r="K110" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" t="b">
-        <v>1</v>
-      </c>
-      <c r="M110" t="b">
-        <v>1</v>
-      </c>
-      <c r="R110" t="b">
-        <v>0</v>
-      </c>
-      <c r="S110" t="b">
-        <v>0</v>
-      </c>
-      <c r="T110" t="b">
-        <v>0</v>
-      </c>
-      <c r="U110" t="b">
-        <v>0</v>
-      </c>
-      <c r="V110" t="b">
-        <v>0</v>
-      </c>
-      <c r="W110" t="b">
-        <v>0</v>
-      </c>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:23">
-      <c r="A111" t="s">
-        <v>298</v>
+      <c r="A111" s="17" t="s">
+        <v>506</v>
       </c>
       <c r="B111" t="s">
         <v>287</v>
       </c>
       <c r="C111" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D111" t="s">
-        <v>312</v>
-      </c>
-      <c r="H111" t="s">
-        <v>292</v>
-      </c>
-      <c r="K111" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" t="b">
-        <v>1</v>
-      </c>
-      <c r="M111" t="b">
-        <v>1</v>
-      </c>
-      <c r="R111" t="b">
-        <v>0</v>
-      </c>
-      <c r="S111" t="b">
-        <v>0</v>
-      </c>
-      <c r="T111" t="b">
-        <v>0</v>
-      </c>
-      <c r="U111" t="b">
-        <v>0</v>
-      </c>
-      <c r="V111" t="b">
-        <v>0</v>
-      </c>
-      <c r="W111" t="b">
-        <v>0</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:23">
-      <c r="A112" t="s">
-        <v>345</v>
+      <c r="A112" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="B112" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C112" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>324</v>
-      </c>
-      <c r="E112" t="s">
-        <v>472</v>
-      </c>
-      <c r="H112" t="s">
-        <v>290</v>
-      </c>
-      <c r="K112" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" t="b">
-        <v>1</v>
-      </c>
-      <c r="M112" t="b">
-        <v>1</v>
-      </c>
-      <c r="R112" t="b">
-        <v>0</v>
-      </c>
-      <c r="S112" t="b">
-        <v>0</v>
-      </c>
-      <c r="T112" t="b">
-        <v>0</v>
-      </c>
-      <c r="U112" t="b">
-        <v>0</v>
-      </c>
-      <c r="V112" t="b">
-        <v>0</v>
-      </c>
-      <c r="W112" t="b">
-        <v>0</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:23">
-      <c r="A113" t="s">
-        <v>344</v>
+      <c r="A113" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" t="s">
-        <v>324</v>
-      </c>
-      <c r="H113" t="s">
-        <v>290</v>
-      </c>
-      <c r="K113" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M113" t="b">
-        <v>1</v>
-      </c>
-      <c r="R113" t="b">
-        <v>0</v>
-      </c>
-      <c r="S113" t="b">
-        <v>0</v>
-      </c>
-      <c r="T113" t="b">
-        <v>0</v>
-      </c>
-      <c r="U113" t="b">
-        <v>0</v>
-      </c>
-      <c r="V113" t="b">
-        <v>0</v>
-      </c>
-      <c r="W113" t="b">
-        <v>0</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:23">
-      <c r="A114" t="s">
-        <v>299</v>
+      <c r="A114" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C114" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>313</v>
-      </c>
-      <c r="H114" t="s">
-        <v>291</v>
-      </c>
-      <c r="K114" t="b">
-        <v>0</v>
-      </c>
-      <c r="M114" t="b">
-        <v>1</v>
-      </c>
-      <c r="N114" t="b">
-        <v>1</v>
-      </c>
-      <c r="R114" t="b">
-        <v>0</v>
-      </c>
-      <c r="S114" t="b">
-        <v>0</v>
-      </c>
-      <c r="T114" t="b">
-        <v>0</v>
-      </c>
-      <c r="U114" t="b">
-        <v>0</v>
-      </c>
-      <c r="V114" t="b">
-        <v>0</v>
-      </c>
-      <c r="W114" t="b">
-        <v>0</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
       <c r="M115" t="b">
-        <v>1</v>
-      </c>
-      <c r="N115" t="b">
         <v>1</v>
       </c>
       <c r="R115" t="b">
@@ -7290,33 +7157,27 @@
     </row>
     <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>395</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>324</v>
-      </c>
-      <c r="E116" t="s">
-        <v>470</v>
-      </c>
-      <c r="F116" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="H116" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
       <c r="M116" t="b">
-        <v>1</v>
-      </c>
-      <c r="N116" t="b">
         <v>1</v>
       </c>
       <c r="R116" t="b">
@@ -7340,16 +7201,19 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="B117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D117" t="s">
-        <v>311</v>
+        <v>324</v>
+      </c>
+      <c r="E117" t="s">
+        <v>472</v>
       </c>
       <c r="H117" t="s">
         <v>290</v>
@@ -7384,7 +7248,7 @@
     </row>
     <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B118" t="s">
         <v>288</v>
@@ -7428,7 +7292,7 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B119" t="s">
         <v>287</v>
@@ -7449,16 +7313,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="b">
-        <v>0</v>
-      </c>
-      <c r="O119" t="b">
-        <v>0</v>
-      </c>
-      <c r="P119" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" t="b">
         <v>0</v>
@@ -7481,19 +7336,19 @@
     </row>
     <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D120" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -7502,16 +7357,7 @@
         <v>1</v>
       </c>
       <c r="N120" t="b">
-        <v>0</v>
-      </c>
-      <c r="O120" t="b">
-        <v>0</v>
-      </c>
-      <c r="P120" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" t="b">
         <v>0</v>
@@ -7534,19 +7380,25 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D121" t="s">
-        <v>313</v>
+        <v>324</v>
+      </c>
+      <c r="E121" t="s">
+        <v>470</v>
+      </c>
+      <c r="F121" t="s">
+        <v>471</v>
       </c>
       <c r="H121" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
@@ -7555,16 +7407,7 @@
         <v>1</v>
       </c>
       <c r="N121" t="b">
-        <v>0</v>
-      </c>
-      <c r="O121" t="b">
-        <v>0</v>
-      </c>
-      <c r="P121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" t="b">
         <v>0</v>
@@ -7587,37 +7430,28 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="B122" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>467</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>493</v>
+        <v>311</v>
+      </c>
+      <c r="H122" t="s">
+        <v>290</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
       </c>
+      <c r="L122" t="b">
+        <v>1</v>
+      </c>
       <c r="M122" t="b">
         <v>1</v>
-      </c>
-      <c r="N122" t="b">
-        <v>0</v>
-      </c>
-      <c r="O122" t="b">
-        <v>0</v>
-      </c>
-      <c r="P122" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q122" t="b">
-        <v>0</v>
       </c>
       <c r="R122" t="b">
         <v>0</v>
@@ -7640,19 +7474,25 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B123" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D123" t="s">
-        <v>311</v>
+        <v>324</v>
+      </c>
+      <c r="H123" t="s">
+        <v>290</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>1</v>
       </c>
       <c r="M123" t="b">
         <v>1</v>
@@ -7678,22 +7518,37 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D124" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="H124" t="s">
+        <v>291</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
       <c r="M124" t="b">
         <v>1</v>
+      </c>
+      <c r="N124" t="b">
+        <v>0</v>
+      </c>
+      <c r="O124" t="b">
+        <v>0</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="b">
+        <v>0</v>
       </c>
       <c r="R124" t="b">
         <v>0</v>
@@ -7716,22 +7571,37 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C125" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D125" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="H125" t="s">
+        <v>292</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
       </c>
       <c r="M125" t="b">
         <v>1</v>
+      </c>
+      <c r="N125" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" t="b">
+        <v>0</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="b">
+        <v>0</v>
       </c>
       <c r="R125" t="b">
         <v>0</v>
@@ -7754,19 +7624,16 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>311</v>
-      </c>
-      <c r="E126" t="s">
-        <v>489</v>
+        <v>313</v>
       </c>
       <c r="H126" t="s">
         <v>292</v>
@@ -7778,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="N126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126" t="b">
         <v>0</v>
@@ -7810,22 +7677,19 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="C127" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
-        <v>313</v>
-      </c>
-      <c r="E127" t="s">
-        <v>490</v>
-      </c>
-      <c r="F127" t="s">
-        <v>491</v>
+        <v>467</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
@@ -7834,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="N127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="b">
         <v>0</v>
@@ -7866,46 +7730,22 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D128" t="s">
-        <v>313</v>
-      </c>
-      <c r="E128" t="s">
-        <v>347</v>
-      </c>
-      <c r="F128" t="s">
-        <v>491</v>
-      </c>
-      <c r="H128" t="s">
-        <v>290</v>
-      </c>
-      <c r="I128" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
       </c>
       <c r="M128" t="b">
         <v>1</v>
-      </c>
-      <c r="N128" t="b">
-        <v>1</v>
-      </c>
-      <c r="O128" t="b">
-        <v>0</v>
-      </c>
-      <c r="P128" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="b">
-        <v>0</v>
       </c>
       <c r="R128" t="b">
         <v>0</v>
@@ -7928,43 +7768,22 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C129" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D129" t="s">
-        <v>313</v>
-      </c>
-      <c r="E129" t="s">
-        <v>492</v>
-      </c>
-      <c r="H129" t="s">
-        <v>290</v>
-      </c>
-      <c r="I129" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
       </c>
       <c r="M129" t="b">
         <v>1</v>
-      </c>
-      <c r="N129" t="b">
-        <v>1</v>
-      </c>
-      <c r="O129" t="b">
-        <v>0</v>
-      </c>
-      <c r="P129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="b">
-        <v>0</v>
       </c>
       <c r="R129" t="b">
         <v>0</v>
@@ -7987,7 +7806,7 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
         <v>287</v>
@@ -7998,29 +7817,11 @@
       <c r="D130" t="s">
         <v>313</v>
       </c>
-      <c r="H130" t="s">
-        <v>292</v>
-      </c>
-      <c r="I130" t="s">
-        <v>309</v>
-      </c>
       <c r="K130" t="b">
         <v>0</v>
       </c>
       <c r="M130" t="b">
         <v>1</v>
-      </c>
-      <c r="N130" t="b">
-        <v>0</v>
-      </c>
-      <c r="O130" t="b">
-        <v>0</v>
-      </c>
-      <c r="P130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="b">
-        <v>0</v>
       </c>
       <c r="R130" t="b">
         <v>0</v>
@@ -8043,26 +7844,23 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E131" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H131" t="s">
         <v>292</v>
       </c>
-      <c r="I131" t="s">
-        <v>309</v>
-      </c>
       <c r="K131" t="b">
         <v>0</v>
       </c>
@@ -8070,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="N131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" t="b">
         <v>0</v>
@@ -8102,7 +7900,7 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>287</v>
@@ -8114,16 +7912,10 @@
         <v>313</v>
       </c>
       <c r="E132" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F132" t="s">
-        <v>482</v>
-      </c>
-      <c r="H132" t="s">
-        <v>292</v>
-      </c>
-      <c r="I132" t="s">
-        <v>309</v>
+        <v>491</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -8132,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="N132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132" t="b">
         <v>0</v>
@@ -8164,7 +7956,7 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
         <v>287</v>
@@ -8175,11 +7967,17 @@
       <c r="D133" t="s">
         <v>313</v>
       </c>
+      <c r="E133" t="s">
+        <v>347</v>
+      </c>
+      <c r="F133" t="s">
+        <v>491</v>
+      </c>
       <c r="H133" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -8220,22 +8018,25 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="B134" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C134" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E134" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="H134" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="I134" t="s">
+        <v>308</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
@@ -8276,23 +8077,23 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D135" t="s">
-        <v>311</v>
-      </c>
-      <c r="E135" t="s">
-        <v>474</v>
+        <v>313</v>
       </c>
       <c r="H135" t="s">
         <v>292</v>
       </c>
+      <c r="I135" t="s">
+        <v>309</v>
+      </c>
       <c r="K135" t="b">
         <v>0</v>
       </c>
@@ -8300,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="N135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="b">
         <v>0</v>
@@ -8332,22 +8133,25 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D136" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E136" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H136" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="I136" t="s">
+        <v>309</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -8356,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="N136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136" t="b">
         <v>0</v>
@@ -8387,8 +8191,8 @@
       </c>
     </row>
     <row r="137" spans="1:23">
-      <c r="A137" s="17" t="s">
-        <v>498</v>
+      <c r="A137" t="s">
+        <v>342</v>
       </c>
       <c r="B137" t="s">
         <v>287</v>
@@ -8400,15 +8204,57 @@
         <v>313</v>
       </c>
       <c r="E137" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="F137" t="s">
-        <v>500</v>
+        <v>482</v>
+      </c>
+      <c r="H137" t="s">
+        <v>292</v>
+      </c>
+      <c r="I137" t="s">
+        <v>309</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>1</v>
+      </c>
+      <c r="N137" t="b">
+        <v>0</v>
+      </c>
+      <c r="O137" t="b">
+        <v>0</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="b">
+        <v>0</v>
+      </c>
+      <c r="R137" t="b">
+        <v>0</v>
+      </c>
+      <c r="S137" t="b">
+        <v>0</v>
+      </c>
+      <c r="T137" t="b">
+        <v>0</v>
+      </c>
+      <c r="U137" t="b">
+        <v>0</v>
+      </c>
+      <c r="V137" t="b">
+        <v>0</v>
+      </c>
+      <c r="W137" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
-      <c r="A138" s="17" t="s">
-        <v>501</v>
+      <c r="A138" t="s">
+        <v>343</v>
       </c>
       <c r="B138" t="s">
         <v>287</v>
@@ -8419,42 +8265,120 @@
       <c r="D138" t="s">
         <v>313</v>
       </c>
-      <c r="E138" t="s">
-        <v>503</v>
+      <c r="H138" t="s">
+        <v>292</v>
+      </c>
+      <c r="I138" t="s">
+        <v>309</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>1</v>
+      </c>
+      <c r="N138" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138" t="b">
+        <v>0</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="b">
+        <v>0</v>
+      </c>
+      <c r="R138" t="b">
+        <v>0</v>
+      </c>
+      <c r="S138" t="b">
+        <v>0</v>
+      </c>
+      <c r="T138" t="b">
+        <v>0</v>
+      </c>
+      <c r="U138" t="b">
+        <v>0</v>
+      </c>
+      <c r="V138" t="b">
+        <v>0</v>
+      </c>
+      <c r="W138" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
-      <c r="A139" s="17" t="s">
-        <v>502</v>
+      <c r="A139" t="s">
+        <v>398</v>
       </c>
       <c r="B139" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E139" t="s">
-        <v>504</v>
+        <v>475</v>
+      </c>
+      <c r="H139" t="s">
+        <v>292</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>1</v>
+      </c>
+      <c r="N139" t="b">
+        <v>1</v>
+      </c>
+      <c r="O139" t="b">
+        <v>0</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="b">
+        <v>0</v>
+      </c>
+      <c r="R139" t="b">
+        <v>0</v>
+      </c>
+      <c r="S139" t="b">
+        <v>0</v>
+      </c>
+      <c r="T139" t="b">
+        <v>0</v>
+      </c>
+      <c r="U139" t="b">
+        <v>0</v>
+      </c>
+      <c r="V139" t="b">
+        <v>0</v>
+      </c>
+      <c r="W139" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E140" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H140" t="s">
         <v>292</v>
@@ -8463,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" t="b">
         <v>1</v>
@@ -8498,175 +8422,100 @@
     </row>
     <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" t="s">
+        <v>315</v>
+      </c>
+      <c r="D141" t="s">
+        <v>324</v>
+      </c>
+      <c r="E141" t="s">
+        <v>473</v>
+      </c>
+      <c r="H141" t="s">
+        <v>290</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
+        <v>1</v>
+      </c>
+      <c r="N141" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141" t="b">
+        <v>0</v>
+      </c>
+      <c r="P141" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="b">
+        <v>0</v>
+      </c>
+      <c r="R141" t="b">
+        <v>0</v>
+      </c>
+      <c r="S141" t="b">
+        <v>0</v>
+      </c>
+      <c r="T141" t="b">
+        <v>0</v>
+      </c>
+      <c r="U141" t="b">
+        <v>0</v>
+      </c>
+      <c r="V141" t="b">
+        <v>0</v>
+      </c>
+      <c r="W141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B142" t="s">
         <v>287</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>314</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>313</v>
       </c>
-      <c r="E141" t="s">
-        <v>477</v>
-      </c>
-      <c r="H141" t="s">
-        <v>292</v>
-      </c>
-      <c r="K141" t="b">
-        <v>0</v>
-      </c>
-      <c r="M141" t="b">
-        <v>0</v>
-      </c>
-      <c r="N141" t="b">
-        <v>1</v>
-      </c>
-      <c r="O141" t="b">
-        <v>0</v>
-      </c>
-      <c r="P141" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q141" t="b">
-        <v>0</v>
-      </c>
-      <c r="R141" t="b">
-        <v>0</v>
-      </c>
-      <c r="S141" t="b">
-        <v>0</v>
-      </c>
-      <c r="T141" t="b">
-        <v>0</v>
-      </c>
-      <c r="U141" t="b">
-        <v>0</v>
-      </c>
-      <c r="V141" t="b">
-        <v>0</v>
-      </c>
-      <c r="W141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23">
-      <c r="A142" t="s">
-        <v>357</v>
-      </c>
-      <c r="B142" t="s">
-        <v>288</v>
-      </c>
-      <c r="C142" t="s">
-        <v>319</v>
-      </c>
-      <c r="D142" t="s">
-        <v>312</v>
-      </c>
       <c r="E142" t="s">
-        <v>478</v>
-      </c>
-      <c r="H142" t="s">
-        <v>292</v>
-      </c>
-      <c r="K142" t="b">
-        <v>0</v>
-      </c>
-      <c r="M142" t="b">
-        <v>0</v>
-      </c>
-      <c r="N142" t="b">
-        <v>1</v>
-      </c>
-      <c r="O142" t="b">
-        <v>0</v>
-      </c>
-      <c r="P142" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q142" t="b">
-        <v>0</v>
-      </c>
-      <c r="R142" t="b">
-        <v>0</v>
-      </c>
-      <c r="S142" t="b">
-        <v>0</v>
-      </c>
-      <c r="T142" t="b">
-        <v>0</v>
-      </c>
-      <c r="U142" t="b">
-        <v>0</v>
-      </c>
-      <c r="V142" t="b">
-        <v>0</v>
-      </c>
-      <c r="W142" t="b">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="F142" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" t="s">
-        <v>294</v>
+      <c r="A143" s="17" t="s">
+        <v>501</v>
       </c>
       <c r="B143" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D143" t="s">
-        <v>311</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="H143" t="s">
-        <v>292</v>
-      </c>
-      <c r="K143" t="b">
-        <v>0</v>
-      </c>
-      <c r="M143" t="b">
-        <v>1</v>
-      </c>
-      <c r="N143" t="b">
-        <v>1</v>
-      </c>
-      <c r="O143" t="b">
-        <v>1</v>
-      </c>
-      <c r="P143" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q143" t="b">
-        <v>1</v>
-      </c>
-      <c r="R143" t="b">
-        <v>0</v>
-      </c>
-      <c r="S143" t="b">
-        <v>0</v>
-      </c>
-      <c r="T143" t="b">
-        <v>0</v>
-      </c>
-      <c r="U143" t="b">
-        <v>0</v>
-      </c>
-      <c r="V143" t="b">
-        <v>0</v>
-      </c>
-      <c r="W143" t="b">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="E143" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:23">
-      <c r="A144" t="s">
-        <v>355</v>
+      <c r="A144" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="B144" t="s">
         <v>287</v>
@@ -8677,63 +8526,26 @@
       <c r="D144" t="s">
         <v>313</v>
       </c>
-      <c r="E144" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="H144" t="s">
-        <v>292</v>
-      </c>
-      <c r="K144" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" t="b">
-        <v>1</v>
-      </c>
-      <c r="N144" t="b">
-        <v>1</v>
-      </c>
-      <c r="O144" t="b">
-        <v>1</v>
-      </c>
-      <c r="P144" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q144" t="b">
-        <v>1</v>
-      </c>
-      <c r="R144" t="b">
-        <v>0</v>
-      </c>
-      <c r="S144" t="b">
-        <v>0</v>
-      </c>
-      <c r="T144" t="b">
-        <v>0</v>
-      </c>
-      <c r="U144" t="b">
-        <v>0</v>
-      </c>
-      <c r="V144" t="b">
-        <v>0</v>
-      </c>
-      <c r="W144" t="b">
-        <v>0</v>
+      <c r="E144" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:23">
       <c r="A145" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D145" t="s">
-        <v>311</v>
-      </c>
-      <c r="E145" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="E145" t="s">
+        <v>476</v>
+      </c>
       <c r="H145" t="s">
         <v>292</v>
       </c>
@@ -8741,19 +8553,19 @@
         <v>0</v>
       </c>
       <c r="M145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" t="b">
         <v>1</v>
       </c>
       <c r="O145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R145" t="b">
         <v>0</v>
@@ -8774,8 +8586,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="146" spans="1:23">
+      <c r="A146" t="s">
+        <v>359</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" t="s">
+        <v>314</v>
+      </c>
+      <c r="D146" t="s">
+        <v>313</v>
+      </c>
+      <c r="E146" t="s">
+        <v>477</v>
+      </c>
+      <c r="H146" t="s">
+        <v>292</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="b">
+        <v>0</v>
+      </c>
+      <c r="N146" t="b">
+        <v>1</v>
+      </c>
+      <c r="O146" t="b">
+        <v>0</v>
+      </c>
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="b">
+        <v>0</v>
+      </c>
+      <c r="R146" t="b">
+        <v>0</v>
+      </c>
+      <c r="S146" t="b">
+        <v>0</v>
+      </c>
+      <c r="T146" t="b">
+        <v>0</v>
+      </c>
+      <c r="U146" t="b">
+        <v>0</v>
+      </c>
+      <c r="V146" t="b">
+        <v>0</v>
+      </c>
+      <c r="W146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" t="s">
+        <v>357</v>
+      </c>
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" t="s">
+        <v>319</v>
+      </c>
+      <c r="D147" t="s">
+        <v>312</v>
+      </c>
+      <c r="E147" t="s">
+        <v>478</v>
+      </c>
+      <c r="H147" t="s">
+        <v>292</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" t="b">
+        <v>1</v>
+      </c>
+      <c r="O147" t="b">
+        <v>0</v>
+      </c>
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="b">
+        <v>0</v>
+      </c>
+      <c r="R147" t="b">
+        <v>0</v>
+      </c>
+      <c r="S147" t="b">
+        <v>0</v>
+      </c>
+      <c r="T147" t="b">
+        <v>0</v>
+      </c>
+      <c r="U147" t="b">
+        <v>0</v>
+      </c>
+      <c r="V147" t="b">
+        <v>0</v>
+      </c>
+      <c r="W147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148" t="s">
+        <v>311</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="H148" t="s">
+        <v>292</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
+        <v>1</v>
+      </c>
+      <c r="N148" t="b">
+        <v>1</v>
+      </c>
+      <c r="O148" t="b">
+        <v>1</v>
+      </c>
+      <c r="P148" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q148" t="b">
+        <v>1</v>
+      </c>
+      <c r="R148" t="b">
+        <v>0</v>
+      </c>
+      <c r="S148" t="b">
+        <v>0</v>
+      </c>
+      <c r="T148" t="b">
+        <v>0</v>
+      </c>
+      <c r="U148" t="b">
+        <v>0</v>
+      </c>
+      <c r="V148" t="b">
+        <v>0</v>
+      </c>
+      <c r="W148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" t="s">
+        <v>314</v>
+      </c>
+      <c r="D149" t="s">
+        <v>313</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="H149" t="s">
+        <v>292</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
+        <v>1</v>
+      </c>
+      <c r="N149" t="b">
+        <v>1</v>
+      </c>
+      <c r="O149" t="b">
+        <v>1</v>
+      </c>
+      <c r="P149" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q149" t="b">
+        <v>1</v>
+      </c>
+      <c r="R149" t="b">
+        <v>0</v>
+      </c>
+      <c r="S149" t="b">
+        <v>0</v>
+      </c>
+      <c r="T149" t="b">
+        <v>0</v>
+      </c>
+      <c r="U149" t="b">
+        <v>0</v>
+      </c>
+      <c r="V149" t="b">
+        <v>0</v>
+      </c>
+      <c r="W149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D150" t="s">
+        <v>311</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="H150" t="s">
+        <v>292</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
+        <v>1</v>
+      </c>
+      <c r="N150" t="b">
+        <v>1</v>
+      </c>
+      <c r="O150" t="b">
+        <v>1</v>
+      </c>
+      <c r="P150" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150" t="b">
+        <v>1</v>
+      </c>
+      <c r="R150" t="b">
+        <v>0</v>
+      </c>
+      <c r="S150" t="b">
+        <v>0</v>
+      </c>
+      <c r="T150" t="b">
+        <v>0</v>
+      </c>
+      <c r="U150" t="b">
+        <v>0</v>
+      </c>
+      <c r="V150" t="b">
+        <v>0</v>
+      </c>
+      <c r="W150" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X145" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}"/>
+  <autoFilter ref="A1:X150" xr:uid="{434BD60A-FB0C-6840-A282-2A366498F430}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DataDictionary05092023.xlsx
+++ b/DataDictionary05092023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crmerrill/lib/tapestratification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B246711-7600-B549-941B-D2B2BF0A78F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77CB1A-DAE9-D941-A832-9A08F2CC78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="47500" windowHeight="23940" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="47500" windowHeight="23940" xr2:uid="{0CFC8428-1E30-8A46-AA94-E08A216C8C38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$150</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$91</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
